--- a/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0.163395385499058</v>
       </c>
       <c r="E2">
-        <v>0.4454668809470022</v>
+        <v>0.4454668809469666</v>
       </c>
       <c r="F2">
-        <v>8.081152497089647</v>
+        <v>8.081152497089676</v>
       </c>
       <c r="G2">
-        <v>6.687737678604179</v>
+        <v>6.687737678604208</v>
       </c>
       <c r="H2">
-        <v>5.981111143738843</v>
+        <v>5.981111143738815</v>
       </c>
       <c r="I2">
-        <v>0.5031015173697782</v>
+        <v>0.5031015173697924</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06165295732296272</v>
+        <v>0.06165295732239429</v>
       </c>
       <c r="D3">
-        <v>0.1366121656703285</v>
+        <v>0.1366121656703001</v>
       </c>
       <c r="E3">
-        <v>0.3723757175902165</v>
+        <v>0.3723757175902023</v>
       </c>
       <c r="F3">
-        <v>6.797268033484102</v>
+        <v>6.797268033484215</v>
       </c>
       <c r="G3">
-        <v>5.622584722421465</v>
+        <v>5.62258472242155</v>
       </c>
       <c r="H3">
-        <v>5.029496612307554</v>
+        <v>5.029496612307668</v>
       </c>
       <c r="I3">
-        <v>0.4204753318869621</v>
+        <v>0.4204753318869692</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05468089014075872</v>
+        <v>0.05468089014088662</v>
       </c>
       <c r="D4">
-        <v>0.1212106823258665</v>
+        <v>0.1212106823258807</v>
       </c>
       <c r="E4">
-        <v>0.3304839870199885</v>
+        <v>0.3304839870199459</v>
       </c>
       <c r="F4">
-        <v>6.057460246628864</v>
+        <v>6.057460246628807</v>
       </c>
       <c r="G4">
-        <v>5.008864159027439</v>
+        <v>5.008864159027411</v>
       </c>
       <c r="H4">
-        <v>4.481065156586453</v>
+        <v>4.481065156586368</v>
       </c>
       <c r="I4">
         <v>0.373088898809165</v>
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05194217041601945</v>
+        <v>0.0519421704163463</v>
       </c>
       <c r="D5">
-        <v>0.115138189981721</v>
+        <v>0.1151381899817352</v>
       </c>
       <c r="E5">
-        <v>0.3139979771811738</v>
+        <v>0.3139979771812023</v>
       </c>
       <c r="F5">
-        <v>5.765562109299594</v>
+        <v>5.765562109299566</v>
       </c>
       <c r="G5">
         <v>4.766720286403171</v>
       </c>
       <c r="H5">
-        <v>4.264655919357011</v>
+        <v>4.26465591935704</v>
       </c>
       <c r="I5">
-        <v>0.3544338217775262</v>
+        <v>0.354433821777512</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05149287643485678</v>
+        <v>0.05149287643482836</v>
       </c>
       <c r="D6">
-        <v>0.1141407196823678</v>
+        <v>0.1141407196827231</v>
       </c>
       <c r="E6">
-        <v>0.3112917593738587</v>
+        <v>0.31129175937388</v>
       </c>
       <c r="F6">
-        <v>5.717606576078737</v>
+        <v>5.717606576078794</v>
       </c>
       <c r="G6">
-        <v>4.726938968561711</v>
+        <v>4.72693896856174</v>
       </c>
       <c r="H6">
-        <v>4.229101146545304</v>
+        <v>4.229101146545247</v>
       </c>
       <c r="I6">
-        <v>0.3513711616287267</v>
+        <v>0.3513711616287409</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05464357335448256</v>
+        <v>0.05464357335436176</v>
       </c>
       <c r="D7">
-        <v>0.1211280285306486</v>
+        <v>0.1211280285308476</v>
       </c>
       <c r="E7">
-        <v>0.3302594702975412</v>
+        <v>0.3302594702974844</v>
       </c>
       <c r="F7">
-        <v>6.053487814151765</v>
+        <v>6.053487814151794</v>
       </c>
       <c r="G7">
-        <v>5.005568816617881</v>
+        <v>5.005568816617995</v>
       </c>
       <c r="H7">
-        <v>4.478120132352586</v>
+        <v>4.478120132352643</v>
       </c>
       <c r="I7">
         <v>0.3728348688691625</v>
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06952305503372003</v>
+        <v>0.06952305503335765</v>
       </c>
       <c r="D8">
-        <v>0.1539033710182167</v>
+        <v>0.1539033710182451</v>
       </c>
       <c r="E8">
         <v>0.4195304479823676</v>
       </c>
       <c r="F8">
-        <v>7.626598716951804</v>
+        <v>7.626598716951662</v>
       </c>
       <c r="G8">
-        <v>6.310609415763253</v>
+        <v>6.310609415763111</v>
       </c>
       <c r="H8">
-        <v>5.644215668757653</v>
+        <v>5.644215668757568</v>
       </c>
       <c r="I8">
-        <v>0.4737886086140009</v>
+        <v>0.4737886086139866</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1048219649098172</v>
+        <v>0.1048219649089788</v>
       </c>
       <c r="D9">
-        <v>0.2303363112868766</v>
+        <v>0.2303363112866634</v>
       </c>
       <c r="E9">
-        <v>0.6292780035191328</v>
+        <v>0.6292780035191825</v>
       </c>
       <c r="F9">
         <v>11.26765647686497</v>
       </c>
       <c r="G9">
-        <v>9.332169061568322</v>
+        <v>9.332169061568294</v>
       </c>
       <c r="H9">
         <v>8.342330108505337</v>
       </c>
       <c r="I9">
-        <v>0.7106498971066628</v>
+        <v>0.7106498971066912</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1393080092458234</v>
+        <v>0.1393080092454539</v>
       </c>
       <c r="D10">
-        <v>0.3033270953776537</v>
+        <v>0.3033270953774405</v>
       </c>
       <c r="E10">
-        <v>0.8313121547646389</v>
+        <v>0.8313121547645821</v>
       </c>
       <c r="F10">
-        <v>14.69192846759614</v>
+        <v>14.6919284675962</v>
       </c>
       <c r="G10">
-        <v>12.17581943577989</v>
+        <v>12.17581943577997</v>
       </c>
       <c r="H10">
-        <v>10.87901574530932</v>
+        <v>10.87901574530929</v>
       </c>
       <c r="I10">
-        <v>0.9384341676024306</v>
+        <v>0.9384341676024093</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1594278721819364</v>
+        <v>0.1594278721822917</v>
       </c>
       <c r="D11">
-        <v>0.3451393838872718</v>
+        <v>0.3451393838874708</v>
       </c>
       <c r="E11">
-        <v>0.9477872331981843</v>
+        <v>0.947787233198099</v>
       </c>
       <c r="F11">
-        <v>16.62415053611898</v>
+        <v>16.62415053611909</v>
       </c>
       <c r="G11">
-        <v>13.78155679172909</v>
+        <v>13.78155679172914</v>
       </c>
       <c r="H11">
-        <v>12.31012772386541</v>
+        <v>12.31012772386549</v>
       </c>
       <c r="I11">
-        <v>1.069600097416796</v>
+        <v>1.069600097416846</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>0.1682277820398923</v>
       </c>
       <c r="D12">
-        <v>0.3632428312071028</v>
+        <v>0.363242831207117</v>
       </c>
       <c r="E12">
-        <v>0.998393962417083</v>
+        <v>0.9983939624169977</v>
       </c>
       <c r="F12">
-        <v>17.45323961388141</v>
+        <v>17.45323961388129</v>
       </c>
       <c r="G12">
-        <v>14.47085409018607</v>
+        <v>14.47085409018601</v>
       </c>
       <c r="H12">
-        <v>12.92414123953344</v>
+        <v>12.92414123953338</v>
       </c>
       <c r="I12">
-        <v>1.126553393590854</v>
+        <v>1.126553393590846</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1662638578489748</v>
+        <v>0.166263857848719</v>
       </c>
       <c r="D13">
-        <v>0.3592124622421551</v>
+        <v>0.3592124622428088</v>
       </c>
       <c r="E13">
-        <v>0.9871178057498113</v>
+        <v>0.9871178057498042</v>
       </c>
       <c r="F13">
-        <v>17.26907081722379</v>
+        <v>17.26907081722396</v>
       </c>
       <c r="G13">
-        <v>14.31772128614921</v>
+        <v>14.31772128614929</v>
       </c>
       <c r="H13">
-        <v>12.78775093629287</v>
+        <v>12.78775093629289</v>
       </c>
       <c r="I13">
-        <v>1.113865064922884</v>
+        <v>1.113865064922877</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1601227210028782</v>
+        <v>0.1601227210032334</v>
       </c>
       <c r="D14">
-        <v>0.3465729751358992</v>
+        <v>0.3465729751360982</v>
       </c>
       <c r="E14">
-        <v>0.9517907221846542</v>
+        <v>0.9517907221846116</v>
       </c>
       <c r="F14">
-        <v>16.68997662561333</v>
+        <v>16.68997662561321</v>
       </c>
       <c r="G14">
-        <v>13.83627713828284</v>
+        <v>13.8362771382827</v>
       </c>
       <c r="H14">
-        <v>12.35887897615507</v>
+        <v>12.35887897615498</v>
       </c>
       <c r="I14">
-        <v>1.074106482735573</v>
+        <v>1.074106482735644</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1565414908663172</v>
+        <v>0.1565414908652798</v>
       </c>
       <c r="D15">
-        <v>0.3391767700726547</v>
+        <v>0.3391767700724557</v>
       </c>
       <c r="E15">
         <v>0.9311431173378608</v>
@@ -921,13 +921,13 @@
         <v>16.35005555171108</v>
       </c>
       <c r="G15">
-        <v>13.55371770956188</v>
+        <v>13.55371770956194</v>
       </c>
       <c r="H15">
         <v>12.10712881911709</v>
       </c>
       <c r="I15">
-        <v>1.050863748257022</v>
+        <v>1.050863748257001</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1381170433502774</v>
+        <v>0.1381170433503343</v>
       </c>
       <c r="D16">
-        <v>0.3008340159173599</v>
+        <v>0.3008340159175305</v>
       </c>
       <c r="E16">
-        <v>0.8243846329129383</v>
+        <v>0.8243846329128885</v>
       </c>
       <c r="F16">
         <v>14.57599566568013</v>
       </c>
       <c r="G16">
-        <v>12.07950432082316</v>
+        <v>12.07950432082313</v>
       </c>
       <c r="H16">
-        <v>10.79314349720894</v>
+        <v>10.79314349720892</v>
       </c>
       <c r="I16">
-        <v>0.9306293002226198</v>
+        <v>0.9306293002226553</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1281938278858519</v>
+        <v>0.1281938278866477</v>
       </c>
       <c r="D17">
-        <v>0.2799841269713994</v>
+        <v>0.2799841269713426</v>
       </c>
       <c r="E17">
-        <v>0.7665236856921069</v>
+        <v>0.7665236856920004</v>
       </c>
       <c r="F17">
-        <v>13.60344274015927</v>
+        <v>13.60344274015949</v>
       </c>
       <c r="G17">
-        <v>11.27164076407951</v>
+        <v>11.27164076407962</v>
       </c>
       <c r="H17">
-        <v>10.07273948527555</v>
+        <v>10.07273948527558</v>
       </c>
       <c r="I17">
-        <v>0.865424984998036</v>
+        <v>0.8654249849980644</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1228573770888062</v>
+        <v>0.1228573770892325</v>
       </c>
       <c r="D18">
-        <v>0.2687147938811592</v>
+        <v>0.2687147938815855</v>
       </c>
       <c r="E18">
-        <v>0.7353050740094247</v>
+        <v>0.7353050740094034</v>
       </c>
       <c r="F18">
-        <v>13.07562928329821</v>
+        <v>13.07562928329816</v>
       </c>
       <c r="G18">
-        <v>10.83328995942153</v>
+        <v>10.83328995942148</v>
       </c>
       <c r="H18">
         <v>9.681748756607561</v>
       </c>
       <c r="I18">
-        <v>0.8302328238428629</v>
+        <v>0.83023282384287</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1211050331883143</v>
+        <v>0.1211050331874759</v>
       </c>
       <c r="D19">
         <v>0.2650056320093768</v>
       </c>
       <c r="E19">
-        <v>0.7250382857766198</v>
+        <v>0.7250382857766482</v>
       </c>
       <c r="F19">
-        <v>12.90158837677563</v>
+        <v>12.90158837677575</v>
       </c>
       <c r="G19">
-        <v>10.68876078086089</v>
+        <v>10.688760780861</v>
       </c>
       <c r="H19">
-        <v>9.552820392489252</v>
+        <v>9.552820392489309</v>
       </c>
       <c r="I19">
-        <v>0.818657505062319</v>
+        <v>0.8186575050622906</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1292093901813729</v>
+        <v>0.1292093901810176</v>
       </c>
       <c r="D20">
-        <v>0.2821242697226012</v>
+        <v>0.2821242697224022</v>
       </c>
       <c r="E20">
-        <v>0.7724567270228704</v>
+        <v>0.7724567270228277</v>
       </c>
       <c r="F20">
         <v>13.70351188258081</v>
       </c>
       <c r="G20">
-        <v>11.35475502806372</v>
+        <v>11.35475502806369</v>
       </c>
       <c r="H20">
         <v>10.14686647521802</v>
       </c>
       <c r="I20">
-        <v>0.8721122833217692</v>
+        <v>0.8721122833217478</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1618868789032319</v>
+        <v>0.1618868789030046</v>
       </c>
       <c r="D21">
-        <v>0.3502095670008885</v>
+        <v>0.3502095670011158</v>
       </c>
       <c r="E21">
-        <v>0.9619494316883461</v>
+        <v>0.9619494316883248</v>
       </c>
       <c r="F21">
-        <v>16.85682683412523</v>
+        <v>16.85682683412517</v>
       </c>
       <c r="G21">
-        <v>13.97498271836932</v>
+        <v>13.97498271836923</v>
       </c>
       <c r="H21">
-        <v>12.48244843055829</v>
+        <v>12.48244843055824</v>
       </c>
       <c r="I21">
-        <v>1.085540645751692</v>
+        <v>1.085540645751564</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.191145654004572</v>
+        <v>0.1911456540046714</v>
       </c>
       <c r="D22">
-        <v>0.409846086688276</v>
+        <v>0.4098460866887166</v>
       </c>
       <c r="E22">
-        <v>1.129202489086893</v>
+        <v>1.129202489086808</v>
       </c>
       <c r="F22">
-        <v>19.56477376985214</v>
+        <v>19.5647737698522</v>
       </c>
       <c r="G22">
-        <v>16.22727879181255</v>
+        <v>16.22727879181267</v>
       </c>
       <c r="H22">
-        <v>14.48776354453014</v>
+        <v>14.48776354453022</v>
       </c>
       <c r="I22">
-        <v>1.273657405751841</v>
+        <v>1.273657405751869</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1743734464155295</v>
+        <v>0.1743734464156717</v>
       </c>
       <c r="D23">
-        <v>0.3758179409026496</v>
+        <v>0.3758179409030191</v>
       </c>
       <c r="E23">
-        <v>1.033612749651667</v>
+        <v>1.033612749651624</v>
       </c>
       <c r="F23">
-        <v>18.02631068926235</v>
+        <v>18.02631068926217</v>
       </c>
       <c r="G23">
-        <v>14.94741407193439</v>
+        <v>14.94741407193425</v>
       </c>
       <c r="H23">
-        <v>13.34853106052819</v>
+        <v>13.34853106052799</v>
       </c>
       <c r="I23">
-        <v>1.166175406501104</v>
+        <v>1.166175406501083</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1254,22 +1254,22 @@
         <v>0.1287491367766762</v>
       </c>
       <c r="D24">
-        <v>0.2811545338817467</v>
+        <v>0.2811545338809651</v>
       </c>
       <c r="E24">
-        <v>0.7697681903280085</v>
+        <v>0.7697681903280724</v>
       </c>
       <c r="F24">
-        <v>13.65817551519342</v>
+        <v>13.65817551519325</v>
       </c>
       <c r="G24">
-        <v>11.31709981388673</v>
+        <v>11.31709981388661</v>
       </c>
       <c r="H24">
-        <v>10.1132832764815</v>
+        <v>10.11328327648144</v>
       </c>
       <c r="I24">
-        <v>0.8690819936907701</v>
+        <v>0.8690819936908056</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09426728068375212</v>
+        <v>0.09426728068334</v>
       </c>
       <c r="D25">
-        <v>0.2076674301795549</v>
+        <v>0.2076674301797823</v>
       </c>
       <c r="E25">
-        <v>0.5668658839063596</v>
+        <v>0.5668658839063809</v>
       </c>
       <c r="F25">
-        <v>10.19281420771205</v>
+        <v>10.19281420771202</v>
       </c>
       <c r="G25">
-        <v>8.440016330734352</v>
+        <v>8.440016330734323</v>
       </c>
       <c r="H25">
         <v>7.545948697720661</v>
       </c>
       <c r="I25">
-        <v>0.6402131734164627</v>
+        <v>0.6402131734164414</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0.163395385499058</v>
       </c>
       <c r="E2">
-        <v>0.4454668809469666</v>
+        <v>0.4454668809470022</v>
       </c>
       <c r="F2">
-        <v>8.081152497089676</v>
+        <v>8.081152497089647</v>
       </c>
       <c r="G2">
-        <v>6.687737678604208</v>
+        <v>6.687737678604179</v>
       </c>
       <c r="H2">
-        <v>5.981111143738815</v>
+        <v>5.981111143738843</v>
       </c>
       <c r="I2">
-        <v>0.5031015173697924</v>
+        <v>0.5031015173697782</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06165295732239429</v>
+        <v>0.06165295732296272</v>
       </c>
       <c r="D3">
-        <v>0.1366121656703001</v>
+        <v>0.1366121656703285</v>
       </c>
       <c r="E3">
-        <v>0.3723757175902023</v>
+        <v>0.3723757175902165</v>
       </c>
       <c r="F3">
-        <v>6.797268033484215</v>
+        <v>6.797268033484102</v>
       </c>
       <c r="G3">
-        <v>5.62258472242155</v>
+        <v>5.622584722421465</v>
       </c>
       <c r="H3">
-        <v>5.029496612307668</v>
+        <v>5.029496612307554</v>
       </c>
       <c r="I3">
-        <v>0.4204753318869692</v>
+        <v>0.4204753318869621</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,22 +491,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05468089014088662</v>
+        <v>0.05468089014075872</v>
       </c>
       <c r="D4">
-        <v>0.1212106823258807</v>
+        <v>0.1212106823258665</v>
       </c>
       <c r="E4">
-        <v>0.3304839870199459</v>
+        <v>0.3304839870199885</v>
       </c>
       <c r="F4">
-        <v>6.057460246628807</v>
+        <v>6.057460246628864</v>
       </c>
       <c r="G4">
-        <v>5.008864159027411</v>
+        <v>5.008864159027439</v>
       </c>
       <c r="H4">
-        <v>4.481065156586368</v>
+        <v>4.481065156586453</v>
       </c>
       <c r="I4">
         <v>0.373088898809165</v>
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0519421704163463</v>
+        <v>0.05194217041601945</v>
       </c>
       <c r="D5">
-        <v>0.1151381899817352</v>
+        <v>0.115138189981721</v>
       </c>
       <c r="E5">
-        <v>0.3139979771812023</v>
+        <v>0.3139979771811738</v>
       </c>
       <c r="F5">
-        <v>5.765562109299566</v>
+        <v>5.765562109299594</v>
       </c>
       <c r="G5">
         <v>4.766720286403171</v>
       </c>
       <c r="H5">
-        <v>4.26465591935704</v>
+        <v>4.264655919357011</v>
       </c>
       <c r="I5">
-        <v>0.354433821777512</v>
+        <v>0.3544338217775262</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05149287643482836</v>
+        <v>0.05149287643485678</v>
       </c>
       <c r="D6">
-        <v>0.1141407196827231</v>
+        <v>0.1141407196823678</v>
       </c>
       <c r="E6">
-        <v>0.31129175937388</v>
+        <v>0.3112917593738587</v>
       </c>
       <c r="F6">
-        <v>5.717606576078794</v>
+        <v>5.717606576078737</v>
       </c>
       <c r="G6">
-        <v>4.72693896856174</v>
+        <v>4.726938968561711</v>
       </c>
       <c r="H6">
-        <v>4.229101146545247</v>
+        <v>4.229101146545304</v>
       </c>
       <c r="I6">
-        <v>0.3513711616287409</v>
+        <v>0.3513711616287267</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -605,22 +605,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05464357335436176</v>
+        <v>0.05464357335448256</v>
       </c>
       <c r="D7">
-        <v>0.1211280285308476</v>
+        <v>0.1211280285306486</v>
       </c>
       <c r="E7">
-        <v>0.3302594702974844</v>
+        <v>0.3302594702975412</v>
       </c>
       <c r="F7">
-        <v>6.053487814151794</v>
+        <v>6.053487814151765</v>
       </c>
       <c r="G7">
-        <v>5.005568816617995</v>
+        <v>5.005568816617881</v>
       </c>
       <c r="H7">
-        <v>4.478120132352643</v>
+        <v>4.478120132352586</v>
       </c>
       <c r="I7">
         <v>0.3728348688691625</v>
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06952305503335765</v>
+        <v>0.06952305503372003</v>
       </c>
       <c r="D8">
-        <v>0.1539033710182451</v>
+        <v>0.1539033710182167</v>
       </c>
       <c r="E8">
         <v>0.4195304479823676</v>
       </c>
       <c r="F8">
-        <v>7.626598716951662</v>
+        <v>7.626598716951804</v>
       </c>
       <c r="G8">
-        <v>6.310609415763111</v>
+        <v>6.310609415763253</v>
       </c>
       <c r="H8">
-        <v>5.644215668757568</v>
+        <v>5.644215668757653</v>
       </c>
       <c r="I8">
-        <v>0.4737886086139866</v>
+        <v>0.4737886086140009</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1048219649089788</v>
+        <v>0.1048219649098172</v>
       </c>
       <c r="D9">
-        <v>0.2303363112866634</v>
+        <v>0.2303363112868766</v>
       </c>
       <c r="E9">
-        <v>0.6292780035191825</v>
+        <v>0.6292780035191328</v>
       </c>
       <c r="F9">
         <v>11.26765647686497</v>
       </c>
       <c r="G9">
-        <v>9.332169061568294</v>
+        <v>9.332169061568322</v>
       </c>
       <c r="H9">
         <v>8.342330108505337</v>
       </c>
       <c r="I9">
-        <v>0.7106498971066912</v>
+        <v>0.7106498971066628</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1393080092454539</v>
+        <v>0.1393080092458234</v>
       </c>
       <c r="D10">
-        <v>0.3033270953774405</v>
+        <v>0.3033270953776537</v>
       </c>
       <c r="E10">
-        <v>0.8313121547645821</v>
+        <v>0.8313121547646389</v>
       </c>
       <c r="F10">
-        <v>14.6919284675962</v>
+        <v>14.69192846759614</v>
       </c>
       <c r="G10">
-        <v>12.17581943577997</v>
+        <v>12.17581943577989</v>
       </c>
       <c r="H10">
-        <v>10.87901574530929</v>
+        <v>10.87901574530932</v>
       </c>
       <c r="I10">
-        <v>0.9384341676024093</v>
+        <v>0.9384341676024306</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1594278721822917</v>
+        <v>0.1594278721819364</v>
       </c>
       <c r="D11">
-        <v>0.3451393838874708</v>
+        <v>0.3451393838872718</v>
       </c>
       <c r="E11">
-        <v>0.947787233198099</v>
+        <v>0.9477872331981843</v>
       </c>
       <c r="F11">
-        <v>16.62415053611909</v>
+        <v>16.62415053611898</v>
       </c>
       <c r="G11">
-        <v>13.78155679172914</v>
+        <v>13.78155679172909</v>
       </c>
       <c r="H11">
-        <v>12.31012772386549</v>
+        <v>12.31012772386541</v>
       </c>
       <c r="I11">
-        <v>1.069600097416846</v>
+        <v>1.069600097416796</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>0.1682277820398923</v>
       </c>
       <c r="D12">
-        <v>0.363242831207117</v>
+        <v>0.3632428312071028</v>
       </c>
       <c r="E12">
-        <v>0.9983939624169977</v>
+        <v>0.998393962417083</v>
       </c>
       <c r="F12">
-        <v>17.45323961388129</v>
+        <v>17.45323961388141</v>
       </c>
       <c r="G12">
-        <v>14.47085409018601</v>
+        <v>14.47085409018607</v>
       </c>
       <c r="H12">
-        <v>12.92414123953338</v>
+        <v>12.92414123953344</v>
       </c>
       <c r="I12">
-        <v>1.126553393590846</v>
+        <v>1.126553393590854</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.166263857848719</v>
+        <v>0.1662638578489748</v>
       </c>
       <c r="D13">
-        <v>0.3592124622428088</v>
+        <v>0.3592124622421551</v>
       </c>
       <c r="E13">
-        <v>0.9871178057498042</v>
+        <v>0.9871178057498113</v>
       </c>
       <c r="F13">
-        <v>17.26907081722396</v>
+        <v>17.26907081722379</v>
       </c>
       <c r="G13">
-        <v>14.31772128614929</v>
+        <v>14.31772128614921</v>
       </c>
       <c r="H13">
-        <v>12.78775093629289</v>
+        <v>12.78775093629287</v>
       </c>
       <c r="I13">
-        <v>1.113865064922877</v>
+        <v>1.113865064922884</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1601227210032334</v>
+        <v>0.1601227210028782</v>
       </c>
       <c r="D14">
-        <v>0.3465729751360982</v>
+        <v>0.3465729751358992</v>
       </c>
       <c r="E14">
-        <v>0.9517907221846116</v>
+        <v>0.9517907221846542</v>
       </c>
       <c r="F14">
-        <v>16.68997662561321</v>
+        <v>16.68997662561333</v>
       </c>
       <c r="G14">
-        <v>13.8362771382827</v>
+        <v>13.83627713828284</v>
       </c>
       <c r="H14">
-        <v>12.35887897615498</v>
+        <v>12.35887897615507</v>
       </c>
       <c r="I14">
-        <v>1.074106482735644</v>
+        <v>1.074106482735573</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1565414908652798</v>
+        <v>0.1565414908663172</v>
       </c>
       <c r="D15">
-        <v>0.3391767700724557</v>
+        <v>0.3391767700726547</v>
       </c>
       <c r="E15">
         <v>0.9311431173378608</v>
@@ -921,13 +921,13 @@
         <v>16.35005555171108</v>
       </c>
       <c r="G15">
-        <v>13.55371770956194</v>
+        <v>13.55371770956188</v>
       </c>
       <c r="H15">
         <v>12.10712881911709</v>
       </c>
       <c r="I15">
-        <v>1.050863748257001</v>
+        <v>1.050863748257022</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1381170433503343</v>
+        <v>0.1381170433502774</v>
       </c>
       <c r="D16">
-        <v>0.3008340159175305</v>
+        <v>0.3008340159173599</v>
       </c>
       <c r="E16">
-        <v>0.8243846329128885</v>
+        <v>0.8243846329129383</v>
       </c>
       <c r="F16">
         <v>14.57599566568013</v>
       </c>
       <c r="G16">
-        <v>12.07950432082313</v>
+        <v>12.07950432082316</v>
       </c>
       <c r="H16">
-        <v>10.79314349720892</v>
+        <v>10.79314349720894</v>
       </c>
       <c r="I16">
-        <v>0.9306293002226553</v>
+        <v>0.9306293002226198</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1281938278866477</v>
+        <v>0.1281938278858519</v>
       </c>
       <c r="D17">
-        <v>0.2799841269713426</v>
+        <v>0.2799841269713994</v>
       </c>
       <c r="E17">
-        <v>0.7665236856920004</v>
+        <v>0.7665236856921069</v>
       </c>
       <c r="F17">
-        <v>13.60344274015949</v>
+        <v>13.60344274015927</v>
       </c>
       <c r="G17">
-        <v>11.27164076407962</v>
+        <v>11.27164076407951</v>
       </c>
       <c r="H17">
-        <v>10.07273948527558</v>
+        <v>10.07273948527555</v>
       </c>
       <c r="I17">
-        <v>0.8654249849980644</v>
+        <v>0.865424984998036</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1228573770892325</v>
+        <v>0.1228573770888062</v>
       </c>
       <c r="D18">
-        <v>0.2687147938815855</v>
+        <v>0.2687147938811592</v>
       </c>
       <c r="E18">
-        <v>0.7353050740094034</v>
+        <v>0.7353050740094247</v>
       </c>
       <c r="F18">
-        <v>13.07562928329816</v>
+        <v>13.07562928329821</v>
       </c>
       <c r="G18">
-        <v>10.83328995942148</v>
+        <v>10.83328995942153</v>
       </c>
       <c r="H18">
         <v>9.681748756607561</v>
       </c>
       <c r="I18">
-        <v>0.83023282384287</v>
+        <v>0.8302328238428629</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1211050331874759</v>
+        <v>0.1211050331883143</v>
       </c>
       <c r="D19">
         <v>0.2650056320093768</v>
       </c>
       <c r="E19">
-        <v>0.7250382857766482</v>
+        <v>0.7250382857766198</v>
       </c>
       <c r="F19">
-        <v>12.90158837677575</v>
+        <v>12.90158837677563</v>
       </c>
       <c r="G19">
-        <v>10.688760780861</v>
+        <v>10.68876078086089</v>
       </c>
       <c r="H19">
-        <v>9.552820392489309</v>
+        <v>9.552820392489252</v>
       </c>
       <c r="I19">
-        <v>0.8186575050622906</v>
+        <v>0.818657505062319</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1292093901810176</v>
+        <v>0.1292093901813729</v>
       </c>
       <c r="D20">
-        <v>0.2821242697224022</v>
+        <v>0.2821242697226012</v>
       </c>
       <c r="E20">
-        <v>0.7724567270228277</v>
+        <v>0.7724567270228704</v>
       </c>
       <c r="F20">
         <v>13.70351188258081</v>
       </c>
       <c r="G20">
-        <v>11.35475502806369</v>
+        <v>11.35475502806372</v>
       </c>
       <c r="H20">
         <v>10.14686647521802</v>
       </c>
       <c r="I20">
-        <v>0.8721122833217478</v>
+        <v>0.8721122833217692</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1618868789030046</v>
+        <v>0.1618868789032319</v>
       </c>
       <c r="D21">
-        <v>0.3502095670011158</v>
+        <v>0.3502095670008885</v>
       </c>
       <c r="E21">
-        <v>0.9619494316883248</v>
+        <v>0.9619494316883461</v>
       </c>
       <c r="F21">
-        <v>16.85682683412517</v>
+        <v>16.85682683412523</v>
       </c>
       <c r="G21">
-        <v>13.97498271836923</v>
+        <v>13.97498271836932</v>
       </c>
       <c r="H21">
-        <v>12.48244843055824</v>
+        <v>12.48244843055829</v>
       </c>
       <c r="I21">
-        <v>1.085540645751564</v>
+        <v>1.085540645751692</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1911456540046714</v>
+        <v>0.191145654004572</v>
       </c>
       <c r="D22">
-        <v>0.4098460866887166</v>
+        <v>0.409846086688276</v>
       </c>
       <c r="E22">
-        <v>1.129202489086808</v>
+        <v>1.129202489086893</v>
       </c>
       <c r="F22">
-        <v>19.5647737698522</v>
+        <v>19.56477376985214</v>
       </c>
       <c r="G22">
-        <v>16.22727879181267</v>
+        <v>16.22727879181255</v>
       </c>
       <c r="H22">
-        <v>14.48776354453022</v>
+        <v>14.48776354453014</v>
       </c>
       <c r="I22">
-        <v>1.273657405751869</v>
+        <v>1.273657405751841</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1743734464156717</v>
+        <v>0.1743734464155295</v>
       </c>
       <c r="D23">
-        <v>0.3758179409030191</v>
+        <v>0.3758179409026496</v>
       </c>
       <c r="E23">
-        <v>1.033612749651624</v>
+        <v>1.033612749651667</v>
       </c>
       <c r="F23">
-        <v>18.02631068926217</v>
+        <v>18.02631068926235</v>
       </c>
       <c r="G23">
-        <v>14.94741407193425</v>
+        <v>14.94741407193439</v>
       </c>
       <c r="H23">
-        <v>13.34853106052799</v>
+        <v>13.34853106052819</v>
       </c>
       <c r="I23">
-        <v>1.166175406501083</v>
+        <v>1.166175406501104</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1254,22 +1254,22 @@
         <v>0.1287491367766762</v>
       </c>
       <c r="D24">
-        <v>0.2811545338809651</v>
+        <v>0.2811545338817467</v>
       </c>
       <c r="E24">
-        <v>0.7697681903280724</v>
+        <v>0.7697681903280085</v>
       </c>
       <c r="F24">
-        <v>13.65817551519325</v>
+        <v>13.65817551519342</v>
       </c>
       <c r="G24">
-        <v>11.31709981388661</v>
+        <v>11.31709981388673</v>
       </c>
       <c r="H24">
-        <v>10.11328327648144</v>
+        <v>10.1132832764815</v>
       </c>
       <c r="I24">
-        <v>0.8690819936908056</v>
+        <v>0.8690819936907701</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09426728068334</v>
+        <v>0.09426728068375212</v>
       </c>
       <c r="D25">
-        <v>0.2076674301797823</v>
+        <v>0.2076674301795549</v>
       </c>
       <c r="E25">
-        <v>0.5668658839063809</v>
+        <v>0.5668658839063596</v>
       </c>
       <c r="F25">
-        <v>10.19281420771202</v>
+        <v>10.19281420771205</v>
       </c>
       <c r="G25">
-        <v>8.440016330734323</v>
+        <v>8.440016330734352</v>
       </c>
       <c r="H25">
         <v>7.545948697720661</v>
       </c>
       <c r="I25">
-        <v>0.6402131734164414</v>
+        <v>0.6402131734164627</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,28 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07386188166736929</v>
+        <v>0.07354231881252105</v>
       </c>
       <c r="D2">
-        <v>0.163395385499058</v>
+        <v>0.1626821736448676</v>
       </c>
       <c r="E2">
-        <v>0.4454668809470022</v>
+        <v>0.4454614697436554</v>
       </c>
       <c r="F2">
-        <v>8.081152497089647</v>
+        <v>8.066266608292551</v>
       </c>
       <c r="G2">
-        <v>6.687737678604179</v>
+        <v>2.252798257589319</v>
       </c>
       <c r="H2">
-        <v>5.981111143738843</v>
+        <v>4.420427291555797</v>
       </c>
       <c r="I2">
-        <v>0.5031015173697782</v>
+        <v>5.969737976247956</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5026863382006042</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,28 +459,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06165295732296272</v>
+        <v>0.06139099229599054</v>
       </c>
       <c r="D3">
-        <v>0.1366121656703285</v>
+        <v>0.1360257318410305</v>
       </c>
       <c r="E3">
-        <v>0.3723757175902165</v>
+        <v>0.3724015720499523</v>
       </c>
       <c r="F3">
-        <v>6.797268033484102</v>
+        <v>6.785285516639675</v>
       </c>
       <c r="G3">
-        <v>5.622584722421465</v>
+        <v>1.891542074146543</v>
       </c>
       <c r="H3">
-        <v>5.029496612307554</v>
+        <v>3.720025181158945</v>
       </c>
       <c r="I3">
-        <v>0.4204753318869621</v>
+        <v>5.020329821382717</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.420162013569616</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,28 +500,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05468089014075872</v>
+        <v>0.05445082104618848</v>
       </c>
       <c r="D4">
-        <v>0.1212106823258665</v>
+        <v>0.1206948962335588</v>
       </c>
       <c r="E4">
-        <v>0.3304839870199885</v>
+        <v>0.3305214760149653</v>
       </c>
       <c r="F4">
-        <v>6.057460246628864</v>
+        <v>6.047045597161542</v>
       </c>
       <c r="G4">
-        <v>5.008864159027439</v>
+        <v>1.68317492043505</v>
       </c>
       <c r="H4">
-        <v>4.481065156586453</v>
+        <v>3.316600950909361</v>
       </c>
       <c r="I4">
-        <v>0.373088898809165</v>
+        <v>4.473091932533379</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.372826948712536</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,28 +541,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05194217041601945</v>
+        <v>0.05172444933757703</v>
       </c>
       <c r="D5">
-        <v>0.115138189981721</v>
+        <v>0.1146498439335915</v>
       </c>
       <c r="E5">
-        <v>0.3139979771811738</v>
+        <v>0.3140388937023531</v>
       </c>
       <c r="F5">
-        <v>5.765562109299594</v>
+        <v>5.755746663701842</v>
       </c>
       <c r="G5">
-        <v>4.766720286403171</v>
+        <v>1.600912963246486</v>
       </c>
       <c r="H5">
-        <v>4.264655919357011</v>
+        <v>3.157464778611001</v>
       </c>
       <c r="I5">
-        <v>0.3544338217775262</v>
+        <v>4.25713926623186</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3541908029153191</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,28 +582,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05149287643485678</v>
+        <v>0.05127717169595769</v>
       </c>
       <c r="D6">
-        <v>0.1141407196823678</v>
+        <v>0.1136568593366718</v>
       </c>
       <c r="E6">
-        <v>0.3112917593738587</v>
+        <v>0.3113331787192095</v>
       </c>
       <c r="F6">
-        <v>5.717606576078737</v>
+        <v>5.707888560259619</v>
       </c>
       <c r="G6">
-        <v>4.726938968561711</v>
+        <v>1.587395363462178</v>
       </c>
       <c r="H6">
-        <v>4.229101146545304</v>
+        <v>3.131322778122239</v>
       </c>
       <c r="I6">
-        <v>0.3513711616287267</v>
+        <v>4.221658753848345</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3511311836550348</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,28 +623,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05464357335448256</v>
+        <v>0.0544136731771161</v>
       </c>
       <c r="D7">
-        <v>0.1211280285306486</v>
+        <v>0.1206126174638484</v>
       </c>
       <c r="E7">
-        <v>0.3302594702975412</v>
+        <v>0.3302970102235463</v>
       </c>
       <c r="F7">
-        <v>6.053487814151765</v>
+        <v>6.043081391084883</v>
       </c>
       <c r="G7">
-        <v>5.005568816617881</v>
+        <v>1.68205561731844</v>
       </c>
       <c r="H7">
-        <v>4.478120132352586</v>
+        <v>3.314435117274996</v>
       </c>
       <c r="I7">
-        <v>0.3728348688691625</v>
+        <v>4.47015317491028</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3725731813338697</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,28 +664,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06952305503372003</v>
+        <v>0.06922423195229044</v>
       </c>
       <c r="D8">
-        <v>0.1539033710182167</v>
+        <v>0.1532356946268578</v>
       </c>
       <c r="E8">
-        <v>0.4195304479823676</v>
+        <v>0.4195378263025376</v>
       </c>
       <c r="F8">
-        <v>7.626598716951804</v>
+        <v>7.612768857172767</v>
       </c>
       <c r="G8">
-        <v>6.310609415763253</v>
+        <v>2.124942223795983</v>
       </c>
       <c r="H8">
-        <v>5.644215668757653</v>
+        <v>4.172415068043449</v>
       </c>
       <c r="I8">
-        <v>0.4737886086140009</v>
+        <v>5.633644460968867</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4734114660572644</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,28 +705,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1048219649098172</v>
+        <v>0.1043437753969698</v>
       </c>
       <c r="D9">
-        <v>0.2303363112868766</v>
+        <v>0.229278906600058</v>
       </c>
       <c r="E9">
-        <v>0.6292780035191328</v>
+        <v>0.6291167278420104</v>
       </c>
       <c r="F9">
-        <v>11.26765647686497</v>
+        <v>11.24431151025499</v>
       </c>
       <c r="G9">
-        <v>9.332169061568322</v>
+        <v>3.148013834672668</v>
       </c>
       <c r="H9">
-        <v>8.342330108505337</v>
+        <v>6.159945704586988</v>
       </c>
       <c r="I9">
-        <v>0.7106498971066628</v>
+        <v>8.324553125194171</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7098923577093359</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,28 +746,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1393080092458234</v>
+        <v>0.1386210895031184</v>
       </c>
       <c r="D10">
-        <v>0.3033270953776537</v>
+        <v>0.3018275546736788</v>
       </c>
       <c r="E10">
-        <v>0.8313121547646389</v>
+        <v>0.8307888271540236</v>
       </c>
       <c r="F10">
-        <v>14.69192846759614</v>
+        <v>14.65649753641605</v>
       </c>
       <c r="G10">
-        <v>12.17581943577989</v>
+        <v>4.10838376071942</v>
       </c>
       <c r="H10">
-        <v>10.87901574530932</v>
+        <v>8.030327623967224</v>
       </c>
       <c r="I10">
-        <v>0.9384341676024306</v>
+        <v>10.85213904619283</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9370874359326109</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1594278721819364</v>
+        <v>0.158593637924227</v>
       </c>
       <c r="D11">
-        <v>0.3451393838872718</v>
+        <v>0.3433349620377584</v>
       </c>
       <c r="E11">
-        <v>0.9477872331981843</v>
+        <v>0.9469070210881796</v>
       </c>
       <c r="F11">
-        <v>16.62415053611898</v>
+        <v>16.5796298387686</v>
       </c>
       <c r="G11">
-        <v>13.78155679172909</v>
+        <v>4.649562288452842</v>
       </c>
       <c r="H11">
-        <v>12.31012772386541</v>
+        <v>9.085719815128442</v>
       </c>
       <c r="I11">
-        <v>1.069600097416796</v>
+        <v>12.2764358134653</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.067748347429152</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,28 +828,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1682277820398923</v>
+        <v>0.1673202873995763</v>
       </c>
       <c r="D12">
-        <v>0.3632428312071028</v>
+        <v>0.3612888653213986</v>
       </c>
       <c r="E12">
-        <v>0.998393962417083</v>
+        <v>0.9973081827731392</v>
       </c>
       <c r="F12">
-        <v>17.45323961388141</v>
+        <v>17.40405480409481</v>
       </c>
       <c r="G12">
-        <v>14.47085409018607</v>
+        <v>4.881571998520116</v>
       </c>
       <c r="H12">
-        <v>12.92414123953344</v>
+        <v>9.538437378626497</v>
       </c>
       <c r="I12">
-        <v>1.126553393590854</v>
+        <v>12.88695964732287</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.124425870444455</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,28 +869,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1662638578489748</v>
+        <v>0.1653732734034037</v>
       </c>
       <c r="D13">
-        <v>0.3592124622421551</v>
+        <v>0.3572928976257685</v>
       </c>
       <c r="E13">
-        <v>0.9871178057498113</v>
+        <v>0.9860810233927921</v>
       </c>
       <c r="F13">
-        <v>17.26907081722379</v>
+        <v>17.2209702392073</v>
       </c>
       <c r="G13">
-        <v>14.31772128614921</v>
+        <v>4.830047031977386</v>
       </c>
       <c r="H13">
-        <v>12.78775093629287</v>
+        <v>9.437884882435071</v>
       </c>
       <c r="I13">
-        <v>1.113865064922884</v>
+        <v>12.75138017597351</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.111802551132989</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,28 +910,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1601227210028782</v>
+        <v>0.1592829267339084</v>
       </c>
       <c r="D14">
-        <v>0.3465729751358992</v>
+        <v>0.3447571570287806</v>
       </c>
       <c r="E14">
-        <v>0.9517907221846542</v>
+        <v>0.9508955312445337</v>
       </c>
       <c r="F14">
-        <v>16.68997662561333</v>
+        <v>16.64510505221773</v>
       </c>
       <c r="G14">
-        <v>13.83627713828284</v>
+        <v>4.6679878357142</v>
       </c>
       <c r="H14">
-        <v>12.35887897615507</v>
+        <v>9.121667982978352</v>
       </c>
       <c r="I14">
-        <v>1.074106482735573</v>
+        <v>12.32492438430694</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.072234348321629</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,28 +951,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1565414908663172</v>
+        <v>0.1557299740422593</v>
       </c>
       <c r="D15">
-        <v>0.3391767700726547</v>
+        <v>0.3374189934091874</v>
       </c>
       <c r="E15">
-        <v>0.9311431173378608</v>
+        <v>0.9303230089144634</v>
       </c>
       <c r="F15">
-        <v>16.35005555171108</v>
+        <v>16.30696292989751</v>
       </c>
       <c r="G15">
-        <v>13.55371770956188</v>
+        <v>4.572831091719962</v>
       </c>
       <c r="H15">
-        <v>12.10712881911709</v>
+        <v>8.936027806443661</v>
       </c>
       <c r="I15">
-        <v>1.050863748257022</v>
+        <v>12.07450630888974</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.049094324286578</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,28 +992,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1381170433502774</v>
+        <v>0.1374381289894302</v>
       </c>
       <c r="D16">
-        <v>0.3008340159173599</v>
+        <v>0.2993512094845698</v>
       </c>
       <c r="E16">
-        <v>0.8243846329129383</v>
+        <v>0.8238783910605747</v>
       </c>
       <c r="F16">
-        <v>14.57599566568013</v>
+        <v>14.54104641743515</v>
       </c>
       <c r="G16">
-        <v>12.07950432082316</v>
+        <v>4.07589508573912</v>
       </c>
       <c r="H16">
-        <v>10.79314349720894</v>
+        <v>7.966998123496154</v>
       </c>
       <c r="I16">
-        <v>0.9306293002226198</v>
+        <v>10.76662855430891</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9293079849904089</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,28 +1033,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1281938278858519</v>
+        <v>0.1275790862299573</v>
       </c>
       <c r="D17">
-        <v>0.2799841269713994</v>
+        <v>0.2786361027254998</v>
       </c>
       <c r="E17">
-        <v>0.7665236856921069</v>
+        <v>0.7661453674542358</v>
       </c>
       <c r="F17">
-        <v>13.60344274015927</v>
+        <v>13.57230480509031</v>
       </c>
       <c r="G17">
-        <v>11.27164076407951</v>
+        <v>3.803276777641287</v>
       </c>
       <c r="H17">
-        <v>10.07273948527555</v>
+        <v>7.435730752575182</v>
       </c>
       <c r="I17">
-        <v>0.865424984998036</v>
+        <v>10.04908939285178</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.864299458800879</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,28 +1074,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1228573770888062</v>
+        <v>0.1222754574427825</v>
       </c>
       <c r="D18">
-        <v>0.2687147938811592</v>
+        <v>0.2674361472596019</v>
       </c>
       <c r="E18">
-        <v>0.7353050740094247</v>
+        <v>0.7349858578222168</v>
       </c>
       <c r="F18">
-        <v>13.07562928329821</v>
+        <v>13.04640505558524</v>
       </c>
       <c r="G18">
-        <v>10.83328995942153</v>
+        <v>3.655271327139673</v>
       </c>
       <c r="H18">
-        <v>9.681748756607561</v>
+        <v>7.147415610830848</v>
       </c>
       <c r="I18">
-        <v>0.8302328238428629</v>
+        <v>9.659538892323383</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.8292018647851691</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,28 +1115,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1211050331883143</v>
+        <v>0.1205336591707891</v>
       </c>
       <c r="D19">
-        <v>0.2650056320093768</v>
+        <v>0.2637493400554973</v>
       </c>
       <c r="E19">
-        <v>0.7250382857766198</v>
+        <v>0.724737135911532</v>
       </c>
       <c r="F19">
-        <v>12.90158837677563</v>
+        <v>12.87297371384261</v>
       </c>
       <c r="G19">
-        <v>10.68876078086089</v>
+        <v>3.606460059238145</v>
       </c>
       <c r="H19">
-        <v>9.552820392489252</v>
+        <v>7.052349319086431</v>
       </c>
       <c r="I19">
-        <v>0.818657505062319</v>
+        <v>9.531069539636519</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.8176561164897009</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,28 +1156,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1292093901813729</v>
+        <v>0.1285882757395456</v>
       </c>
       <c r="D20">
-        <v>0.2821242697226012</v>
+        <v>0.2807628097495751</v>
       </c>
       <c r="E20">
-        <v>0.7724567270228704</v>
+        <v>0.7720664325688276</v>
       </c>
       <c r="F20">
-        <v>13.70351188258081</v>
+        <v>13.67199952675838</v>
       </c>
       <c r="G20">
-        <v>11.35475502806372</v>
+        <v>3.831333254322942</v>
       </c>
       <c r="H20">
-        <v>10.14686647521802</v>
+        <v>7.490393992230935</v>
       </c>
       <c r="I20">
-        <v>0.8721122833217692</v>
+        <v>10.12293474090887</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.8709679544456961</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1618868789032319</v>
+        <v>0.1610328031610635</v>
       </c>
       <c r="D21">
-        <v>0.3502095670008885</v>
+        <v>0.3483645120849417</v>
       </c>
       <c r="E21">
-        <v>0.9619494316883461</v>
+        <v>0.9610152886657914</v>
       </c>
       <c r="F21">
-        <v>16.85682683412523</v>
+        <v>16.81105159979575</v>
       </c>
       <c r="G21">
-        <v>13.97498271836932</v>
+        <v>4.71468760891733</v>
       </c>
       <c r="H21">
-        <v>12.48244843055829</v>
+        <v>9.212783261362006</v>
       </c>
       <c r="I21">
-        <v>1.085540645751692</v>
+        <v>12.44781743911852</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.083615733616242</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,28 +1238,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.191145654004572</v>
+        <v>0.1900101591131147</v>
       </c>
       <c r="D22">
-        <v>0.409846086688276</v>
+        <v>0.4074345726582891</v>
       </c>
       <c r="E22">
-        <v>1.129202489086893</v>
+        <v>1.127375425096886</v>
       </c>
       <c r="F22">
-        <v>19.56477376985214</v>
+        <v>19.50058935638259</v>
       </c>
       <c r="G22">
-        <v>16.22727879181255</v>
+        <v>5.471675445179244</v>
       </c>
       <c r="H22">
-        <v>14.48776354453014</v>
+        <v>10.6905150876913</v>
       </c>
       <c r="I22">
-        <v>1.273657405751841</v>
+        <v>14.43938464629392</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.270582919625681</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,28 +1279,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1743734464155295</v>
+        <v>0.1734107083832868</v>
       </c>
       <c r="D23">
-        <v>0.3758179409026496</v>
+        <v>0.3737520633001736</v>
       </c>
       <c r="E23">
-        <v>1.033612749651667</v>
+        <v>1.032360733099111</v>
       </c>
       <c r="F23">
-        <v>18.02631068926235</v>
+        <v>17.97355397503281</v>
       </c>
       <c r="G23">
-        <v>14.94741407193439</v>
+        <v>5.041850512396394</v>
       </c>
       <c r="H23">
-        <v>13.34853106052819</v>
+        <v>9.851269657428475</v>
       </c>
       <c r="I23">
-        <v>1.166175406501104</v>
+        <v>13.30867978951613</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.163830111874773</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,28 +1320,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1287491367766762</v>
+        <v>0.1281309156777581</v>
       </c>
       <c r="D24">
-        <v>0.2811545338817467</v>
+        <v>0.2797991725357321</v>
       </c>
       <c r="E24">
-        <v>0.7697681903280085</v>
+        <v>0.7693833533441747</v>
       </c>
       <c r="F24">
-        <v>13.65817551519342</v>
+        <v>13.62683326570533</v>
       </c>
       <c r="G24">
-        <v>11.31709981388673</v>
+        <v>3.818622420616606</v>
       </c>
       <c r="H24">
-        <v>10.1132832764815</v>
+        <v>7.465628756402168</v>
       </c>
       <c r="I24">
-        <v>0.8690819936907701</v>
+        <v>10.0894794917094</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.8679462192118663</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09426728068375212</v>
+        <v>0.09384552792113254</v>
       </c>
       <c r="D25">
-        <v>0.2076674301795549</v>
+        <v>0.2067316668721872</v>
       </c>
       <c r="E25">
-        <v>0.5668658839063596</v>
+        <v>0.5667719188683762</v>
       </c>
       <c r="F25">
-        <v>10.19281420771205</v>
+        <v>10.17255484559806</v>
       </c>
       <c r="G25">
-        <v>8.440016330734352</v>
+        <v>2.846233556586725</v>
       </c>
       <c r="H25">
-        <v>7.545948697720661</v>
+        <v>5.573035290074188</v>
       </c>
       <c r="I25">
-        <v>0.6402131734164627</v>
+        <v>7.530503767445197</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6395879392533743</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07354231881252105</v>
+        <v>0.2316927969112186</v>
       </c>
       <c r="D2">
-        <v>0.1626821736448676</v>
+        <v>0.0980646946047159</v>
       </c>
       <c r="E2">
-        <v>0.4454614697436554</v>
+        <v>0.05558707882570424</v>
       </c>
       <c r="F2">
-        <v>8.066266608292551</v>
+        <v>7.734350266140581</v>
       </c>
       <c r="G2">
-        <v>2.252798257589319</v>
+        <v>0.0007199454956388074</v>
       </c>
       <c r="H2">
-        <v>4.420427291555797</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.969737976247956</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5026863382006042</v>
+        <v>0.2898711580845799</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.82211336827271</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.03190003274077746</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06139099229599054</v>
+        <v>0.2055905171775265</v>
       </c>
       <c r="D3">
-        <v>0.1360257318410305</v>
+        <v>0.06585602662651269</v>
       </c>
       <c r="E3">
-        <v>0.3724015720499523</v>
+        <v>0.05116585274607921</v>
       </c>
       <c r="F3">
-        <v>6.785285516639675</v>
+        <v>6.637423664429235</v>
       </c>
       <c r="G3">
-        <v>1.891542074146543</v>
+        <v>0.0007693043333025187</v>
       </c>
       <c r="H3">
-        <v>3.720025181158945</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.020329821382717</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.420162013569616</v>
+        <v>0.2599028249657636</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.3723307203789</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.02953486131001526</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05445082104618848</v>
+        <v>0.1915970871941255</v>
       </c>
       <c r="D4">
-        <v>0.1206948962335588</v>
+        <v>0.05228468602621916</v>
       </c>
       <c r="E4">
-        <v>0.3305214760149653</v>
+        <v>0.04870839312333075</v>
       </c>
       <c r="F4">
-        <v>6.047045597161542</v>
+        <v>6.142830096726271</v>
       </c>
       <c r="G4">
-        <v>1.68317492043505</v>
+        <v>0.0007976085916743259</v>
       </c>
       <c r="H4">
-        <v>3.316600950909361</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.473091932533379</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.372826948712536</v>
+        <v>0.2462550381365105</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.45631499149255</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.02822369414468184</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05172444933757703</v>
+        <v>0.1862560350544413</v>
       </c>
       <c r="D5">
-        <v>0.1146498439335915</v>
+        <v>0.0478238136740643</v>
       </c>
       <c r="E5">
-        <v>0.3140388937023531</v>
+        <v>0.04775332816590527</v>
       </c>
       <c r="F5">
-        <v>5.755746663701842</v>
+        <v>5.972877051091388</v>
       </c>
       <c r="G5">
-        <v>1.600912963246486</v>
+        <v>0.0008088455381893041</v>
       </c>
       <c r="H5">
-        <v>3.157464778611001</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.25713926623186</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3541908029153191</v>
+        <v>0.2415403922126984</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.71054607794537</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02771311853106795</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05127717169595769</v>
+        <v>0.1853878327927418</v>
       </c>
       <c r="D6">
-        <v>0.1136568593366718</v>
+        <v>0.04713758176082905</v>
       </c>
       <c r="E6">
-        <v>0.3113331787192095</v>
+        <v>0.04759715166736811</v>
       </c>
       <c r="F6">
-        <v>5.707888560259619</v>
+        <v>5.94628725089288</v>
       </c>
       <c r="G6">
-        <v>1.587395363462178</v>
+        <v>0.0008106977876388215</v>
       </c>
       <c r="H6">
-        <v>3.131322778122239</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.221658753848345</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3511311836550348</v>
+        <v>0.240801459201343</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.58849346467986</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.02762952568781607</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0544136731771161</v>
+        <v>0.1915237415524444</v>
       </c>
       <c r="D7">
-        <v>0.1206126174638484</v>
+        <v>0.05222067327336788</v>
       </c>
       <c r="E7">
-        <v>0.3302970102235463</v>
+        <v>0.04869534339960957</v>
       </c>
       <c r="F7">
-        <v>6.043081391084883</v>
+        <v>6.140423253293534</v>
       </c>
       <c r="G7">
-        <v>1.68205561731844</v>
+        <v>0.0007977611365972415</v>
       </c>
       <c r="H7">
-        <v>3.314435117274996</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.47015317491028</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3725731813338697</v>
+        <v>0.2461883673643044</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.44613123603671</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.02821672385463714</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06922423195229044</v>
+        <v>0.2221527599256774</v>
       </c>
       <c r="D8">
-        <v>0.1532356946268578</v>
+        <v>0.08527994663655392</v>
       </c>
       <c r="E8">
-        <v>0.4195378263025376</v>
+        <v>0.05399499300183486</v>
       </c>
       <c r="F8">
-        <v>7.612768857172767</v>
+        <v>7.30835924013698</v>
       </c>
       <c r="G8">
-        <v>2.124942223795983</v>
+        <v>0.0007375426310179194</v>
       </c>
       <c r="H8">
-        <v>4.172415068043449</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5.633644460968867</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4734114660572644</v>
+        <v>0.2782752280079848</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.57826653813686</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.03104599702533051</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1043437753969698</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D9">
-        <v>0.229278906600058</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E9">
-        <v>0.6291167278420104</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F9">
-        <v>11.24431151025499</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G9">
-        <v>3.148013834672668</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H9">
-        <v>6.159945704586988</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8.324553125194171</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7098923577093359</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1386210895031184</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D10">
-        <v>0.3018275546736788</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E10">
-        <v>0.8307888271540236</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F10">
-        <v>14.65649753641605</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G10">
-        <v>4.10838376071942</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H10">
-        <v>8.030327623967224</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>10.85213904619283</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9370874359326109</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.158593637924227</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D11">
-        <v>0.3433349620377584</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E11">
-        <v>0.9469070210881796</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F11">
-        <v>16.5796298387686</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G11">
-        <v>4.649562288452842</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H11">
-        <v>9.085719815128442</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>12.2764358134653</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.067748347429152</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1673202873995763</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D12">
-        <v>0.3612888653213986</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E12">
-        <v>0.9973081827731392</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F12">
-        <v>17.40405480409481</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G12">
-        <v>4.881571998520116</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H12">
-        <v>9.538437378626497</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>12.88695964732287</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.124425870444455</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1653732734034037</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D13">
-        <v>0.3572928976257685</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E13">
-        <v>0.9860810233927921</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F13">
-        <v>17.2209702392073</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G13">
-        <v>4.830047031977386</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H13">
-        <v>9.437884882435071</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>12.75138017597351</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.111802551132989</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1592829267339084</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D14">
-        <v>0.3447571570287806</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E14">
-        <v>0.9508955312445337</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F14">
-        <v>16.64510505221773</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G14">
-        <v>4.6679878357142</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H14">
-        <v>9.121667982978352</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>12.32492438430694</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.072234348321629</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1557299740422593</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D15">
-        <v>0.3374189934091874</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E15">
-        <v>0.9303230089144634</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F15">
-        <v>16.30696292989751</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G15">
-        <v>4.572831091719962</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H15">
-        <v>8.936027806443661</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>12.07450630888974</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.049094324286578</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1374381289894302</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D16">
-        <v>0.2993512094845698</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E16">
-        <v>0.8238783910605747</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F16">
-        <v>14.54104641743515</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G16">
-        <v>4.07589508573912</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H16">
-        <v>7.966998123496154</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>10.76662855430891</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9293079849904089</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1275790862299573</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D17">
-        <v>0.2786361027254998</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E17">
-        <v>0.7661453674542358</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F17">
-        <v>13.57230480509031</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G17">
-        <v>3.803276777641287</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H17">
-        <v>7.435730752575182</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>10.04908939285178</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.864299458800879</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1222754574427825</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D18">
-        <v>0.2674361472596019</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E18">
-        <v>0.7349858578222168</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F18">
-        <v>13.04640505558524</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G18">
-        <v>3.655271327139673</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H18">
-        <v>7.147415610830848</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>9.659538892323383</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8292018647851691</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1205336591707891</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D19">
-        <v>0.2637493400554973</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E19">
-        <v>0.724737135911532</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F19">
-        <v>12.87297371384261</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G19">
-        <v>3.606460059238145</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H19">
-        <v>7.052349319086431</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>9.531069539636519</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8176561164897009</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1285882757395456</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D20">
-        <v>0.2807628097495751</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E20">
-        <v>0.7720664325688276</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F20">
-        <v>13.67199952675838</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G20">
-        <v>3.831333254322942</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H20">
-        <v>7.490393992230935</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>10.12293474090887</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.8709679544456961</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1610328031610635</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D21">
-        <v>0.3483645120849417</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E21">
-        <v>0.9610152886657914</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F21">
-        <v>16.81105159979575</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G21">
-        <v>4.71468760891733</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H21">
-        <v>9.212783261362006</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>12.44781743911852</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.083615733616242</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1900101591131147</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D22">
-        <v>0.4074345726582891</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E22">
-        <v>1.127375425096886</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F22">
-        <v>19.50058935638259</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G22">
-        <v>5.471675445179244</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H22">
-        <v>10.6905150876913</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>14.43938464629392</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.270582919625681</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1734107083832868</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D23">
-        <v>0.3737520633001736</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E23">
-        <v>1.032360733099111</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F23">
-        <v>17.97355397503281</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G23">
-        <v>5.041850512396394</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H23">
-        <v>9.851269657428475</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>13.30867978951613</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.163830111874773</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1281309156777581</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D24">
-        <v>0.2797991725357321</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E24">
-        <v>0.7693833533441747</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F24">
-        <v>13.62683326570533</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G24">
-        <v>3.818622420616606</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H24">
-        <v>7.465628756402168</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>10.0894794917094</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8679462192118663</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09384552792113254</v>
+        <v>0.316633844417737</v>
       </c>
       <c r="D25">
-        <v>0.2067316668721872</v>
+        <v>0.2625316275997847</v>
       </c>
       <c r="E25">
-        <v>0.5667719188683762</v>
+        <v>0.0685778046640948</v>
       </c>
       <c r="F25">
-        <v>10.17255484559806</v>
+        <v>12.71455716792536</v>
       </c>
       <c r="G25">
-        <v>2.846233556586725</v>
+        <v>0.0005781097256971031</v>
       </c>
       <c r="H25">
-        <v>5.573035290074188</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>7.530503767445197</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6395879392533743</v>
+        <v>0.4229543102980102</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>32.19292062963888</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.03915293552488386</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2316927969112186</v>
+        <v>0.02042543574770761</v>
       </c>
       <c r="D2">
-        <v>0.0980646946047159</v>
+        <v>1.34056594597746</v>
       </c>
       <c r="E2">
-        <v>0.05558707882570424</v>
+        <v>0.1476735909353373</v>
       </c>
       <c r="F2">
-        <v>7.734350266140581</v>
+        <v>19.40784979995709</v>
       </c>
       <c r="G2">
-        <v>0.0007199454956388074</v>
+        <v>0.0006622229209446969</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2898711580845799</v>
+        <v>0.04185823703874902</v>
       </c>
       <c r="K2">
-        <v>21.82211336827271</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03190003274077746</v>
+        <v>0.4831433327991022</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.62099651465923</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.319932593206403</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2055905171775265</v>
+        <v>0.02252765236629362</v>
       </c>
       <c r="D3">
-        <v>0.06585602662651269</v>
+        <v>1.058643702587034</v>
       </c>
       <c r="E3">
-        <v>0.05116585274607921</v>
+        <v>0.117102194571487</v>
       </c>
       <c r="F3">
-        <v>6.637423664429235</v>
+        <v>15.96933864959561</v>
       </c>
       <c r="G3">
-        <v>0.0007693043333025187</v>
+        <v>0.0007336656154117402</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2599028249657636</v>
+        <v>0.0475159179412934</v>
       </c>
       <c r="K3">
-        <v>18.3723307203789</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02953486131001526</v>
+        <v>0.3820297763119811</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.22359021889716</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.298805401767439</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1915970871941255</v>
+        <v>0.02375443395585286</v>
       </c>
       <c r="D4">
-        <v>0.05228468602621916</v>
+        <v>0.9237812368612879</v>
       </c>
       <c r="E4">
-        <v>0.04870839312333075</v>
+        <v>0.1017117656047333</v>
       </c>
       <c r="F4">
-        <v>6.142830096726271</v>
+        <v>14.36326795250051</v>
       </c>
       <c r="G4">
-        <v>0.0007976085916743259</v>
+        <v>0.0007718928019756953</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2462550381365105</v>
+        <v>0.05156615190940173</v>
       </c>
       <c r="K4">
-        <v>16.45631499149255</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.02822369414468184</v>
+        <v>0.3314778629165431</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.0121774439296</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.282705564835609</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1862560350544413</v>
+        <v>0.02424805755213644</v>
       </c>
       <c r="D5">
-        <v>0.0478238136740643</v>
+        <v>0.8744240642113539</v>
       </c>
       <c r="E5">
-        <v>0.04775332816590527</v>
+        <v>0.09592689858694925</v>
       </c>
       <c r="F5">
-        <v>5.972877051091388</v>
+        <v>13.78393829875455</v>
       </c>
       <c r="G5">
-        <v>0.0008088455381893041</v>
+        <v>0.0007867266777263661</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2415403922126984</v>
+        <v>0.05331851401479248</v>
       </c>
       <c r="K5">
-        <v>15.71054607794537</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02771311853106795</v>
+        <v>0.3125495278594741</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.556890834807604</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.275906799585087</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1853878327927418</v>
+        <v>0.02432981496146791</v>
       </c>
       <c r="D6">
-        <v>0.04713758176082905</v>
+        <v>0.8664981700701162</v>
       </c>
       <c r="E6">
-        <v>0.04759715166736811</v>
+        <v>0.09498955327613601</v>
       </c>
       <c r="F6">
-        <v>5.94628725089288</v>
+        <v>13.69139292460062</v>
       </c>
       <c r="G6">
-        <v>0.0008106977876388215</v>
+        <v>0.0007891564191866714</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.240801459201343</v>
+        <v>0.05361489890731619</v>
       </c>
       <c r="K6">
-        <v>15.58849346467986</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.02762952568781607</v>
+        <v>0.3094865534857831</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.483143834856918</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.274772287358232</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1915237415524444</v>
+        <v>0.02376110837081225</v>
       </c>
       <c r="D7">
-        <v>0.05222067327336788</v>
+        <v>0.9230962133968887</v>
       </c>
       <c r="E7">
-        <v>0.04869534339960957</v>
+        <v>0.1016320756336917</v>
       </c>
       <c r="F7">
-        <v>6.140423253293534</v>
+        <v>14.35519338841647</v>
       </c>
       <c r="G7">
-        <v>0.0007977611365972415</v>
+        <v>0.0007720953138007291</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2461883673643044</v>
+        <v>0.05158940835013226</v>
       </c>
       <c r="K7">
-        <v>16.44613123603671</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02821672385463714</v>
+        <v>0.331216828180672</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.00590431916774</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.282614410408272</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2221527599256774</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D8">
-        <v>0.08527994663655392</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E8">
-        <v>0.05399499300183486</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F8">
-        <v>7.30835924013698</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G8">
-        <v>0.0007375426310179194</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2782752280079848</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K8">
-        <v>20.57826653813686</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.03104599702533051</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D9">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E9">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F9">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G9">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K9">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D10">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E10">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F10">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G10">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K10">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D11">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E11">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F11">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G11">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K11">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D12">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E12">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F12">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G12">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K12">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D13">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E13">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F13">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G13">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K13">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D14">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E14">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F14">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G14">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K14">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D15">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E15">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F15">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G15">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K15">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D16">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E16">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F16">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G16">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K16">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D17">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E17">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F17">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G17">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K17">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D18">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E18">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F18">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G18">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K18">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D19">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E19">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F19">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G19">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K19">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D20">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E20">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F20">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G20">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K20">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D21">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E21">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F21">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G21">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K21">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D22">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E22">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F22">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G22">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K22">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D23">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E23">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F23">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G23">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K23">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D24">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E24">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F24">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G24">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K24">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.316633844417737</v>
+        <v>0.02117248643738812</v>
       </c>
       <c r="D25">
-        <v>0.2625316275997847</v>
+        <v>1.231683566821232</v>
       </c>
       <c r="E25">
-        <v>0.0685778046640948</v>
+        <v>0.136092272690977</v>
       </c>
       <c r="F25">
-        <v>12.71455716792536</v>
+        <v>18.06920905681335</v>
       </c>
       <c r="G25">
-        <v>0.0005781097256971031</v>
+        <v>0.0006886529956953785</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4229543102980102</v>
+        <v>0.04364965508532848</v>
       </c>
       <c r="K25">
-        <v>32.19292062963888</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.03915293552488386</v>
+        <v>0.444742276183689</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.7150594960053</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.313825775042915</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02042543574770761</v>
+        <v>0.09406588541035354</v>
       </c>
       <c r="D2">
-        <v>1.34056594597746</v>
+        <v>0.7813990817587921</v>
       </c>
       <c r="E2">
-        <v>0.1476735909353373</v>
+        <v>0.03103577933686807</v>
       </c>
       <c r="F2">
-        <v>19.40784979995709</v>
+        <v>21.85007631241808</v>
       </c>
       <c r="G2">
-        <v>0.0006622229209446969</v>
+        <v>0.003150467317747274</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04185823703874902</v>
+        <v>0.2498563911488247</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4831433327991022</v>
+        <v>0.1341044033651713</v>
       </c>
       <c r="M2">
-        <v>13.62099651465923</v>
+        <v>10.42160049316291</v>
       </c>
       <c r="N2">
-        <v>1.319932593206403</v>
+        <v>1.504202102293192</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02252765236629362</v>
+        <v>0.09504084073810048</v>
       </c>
       <c r="D3">
-        <v>1.058643702587034</v>
+        <v>0.7628433209850698</v>
       </c>
       <c r="E3">
-        <v>0.117102194571487</v>
+        <v>0.0269115561100719</v>
       </c>
       <c r="F3">
-        <v>15.96933864959561</v>
+        <v>21.80513693331193</v>
       </c>
       <c r="G3">
-        <v>0.0007336656154117402</v>
+        <v>0.003174326715146544</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0475159179412934</v>
+        <v>0.2543071639378773</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3820297763119811</v>
+        <v>0.1220472746867642</v>
       </c>
       <c r="M3">
-        <v>11.22359021889716</v>
+        <v>10.18886034099157</v>
       </c>
       <c r="N3">
-        <v>1.298805401767439</v>
+        <v>1.490789305639211</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02375443395585286</v>
+        <v>0.09566797195529197</v>
       </c>
       <c r="D4">
-        <v>0.9237812368612879</v>
+        <v>0.7522647551483601</v>
       </c>
       <c r="E4">
-        <v>0.1017117656047333</v>
+        <v>0.02439388430628142</v>
       </c>
       <c r="F4">
-        <v>14.36326795250051</v>
+        <v>21.79565986186299</v>
       </c>
       <c r="G4">
-        <v>0.0007718928019756953</v>
+        <v>0.003189637043959326</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05156615190940173</v>
+        <v>0.2571821158558087</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3314778629165431</v>
+        <v>0.1147621229389415</v>
       </c>
       <c r="M4">
-        <v>10.0121774439296</v>
+        <v>10.05286381168023</v>
       </c>
       <c r="N4">
-        <v>1.282705564835609</v>
+        <v>1.483465168856085</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02424805755213644</v>
+        <v>0.09593073196163182</v>
       </c>
       <c r="D5">
-        <v>0.8744240642113539</v>
+        <v>0.748152812020237</v>
       </c>
       <c r="E5">
-        <v>0.09592689858694925</v>
+        <v>0.02337107268394334</v>
       </c>
       <c r="F5">
-        <v>13.78393829875455</v>
+        <v>21.79627632537057</v>
       </c>
       <c r="G5">
-        <v>0.0007867266777263661</v>
+        <v>0.003196043743431468</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05331851401479248</v>
+        <v>0.2583893534272015</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3125495278594741</v>
+        <v>0.1118212780225463</v>
       </c>
       <c r="M5">
-        <v>9.556890834807604</v>
+        <v>9.999146149881028</v>
       </c>
       <c r="N5">
-        <v>1.275906799585087</v>
+        <v>1.480711048301671</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02432981496146791</v>
+        <v>0.09597479875996129</v>
       </c>
       <c r="D6">
-        <v>0.8664981700701162</v>
+        <v>0.74748187085072</v>
       </c>
       <c r="E6">
-        <v>0.09498955327613601</v>
+        <v>0.02320141177935753</v>
       </c>
       <c r="F6">
-        <v>13.69139292460062</v>
+        <v>21.79664699046265</v>
       </c>
       <c r="G6">
-        <v>0.0007891564191866714</v>
+        <v>0.003197117737774999</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05361489890731619</v>
+        <v>0.2585919666402461</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3094865534857831</v>
+        <v>0.1113345890559572</v>
       </c>
       <c r="M6">
-        <v>9.483143834856918</v>
+        <v>9.990328188206377</v>
       </c>
       <c r="N6">
-        <v>1.274772287358232</v>
+        <v>1.480267692665919</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02376110837081225</v>
+        <v>0.09567148643887613</v>
       </c>
       <c r="D7">
-        <v>0.9230962133968887</v>
+        <v>0.7522085023741738</v>
       </c>
       <c r="E7">
-        <v>0.1016320756336917</v>
+        <v>0.02438007818238219</v>
       </c>
       <c r="F7">
-        <v>14.35519338841647</v>
+        <v>21.79565014175415</v>
       </c>
       <c r="G7">
-        <v>0.0007720953138007291</v>
+        <v>0.003189722766523894</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05158940835013226</v>
+        <v>0.2571982527477239</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.331216828180672</v>
+        <v>0.1147223509172051</v>
       </c>
       <c r="M7">
-        <v>10.00590431916774</v>
+        <v>10.05213250970226</v>
       </c>
       <c r="N7">
-        <v>1.282614410408272</v>
+        <v>1.483427090594333</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02117248643738812</v>
+        <v>0.09439615292400561</v>
       </c>
       <c r="D8">
-        <v>1.231683566821232</v>
+        <v>0.7748282793598946</v>
       </c>
       <c r="E8">
-        <v>0.136092272690977</v>
+        <v>0.02961039513922969</v>
       </c>
       <c r="F8">
-        <v>18.06920905681335</v>
+        <v>21.83077382663072</v>
       </c>
       <c r="G8">
-        <v>0.0006886529956953785</v>
+        <v>0.003158557861903776</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04364965508532848</v>
+        <v>0.2513614658790555</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.444742276183689</v>
+        <v>0.1299215390404953</v>
       </c>
       <c r="M8">
-        <v>12.7150594960053</v>
+        <v>10.33989661738667</v>
       </c>
       <c r="N8">
-        <v>1.313825775042915</v>
+        <v>1.49938899759384</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02117248643738812</v>
+        <v>0.09211992855199469</v>
       </c>
       <c r="D9">
-        <v>1.231683566821232</v>
+        <v>0.8259347307075586</v>
       </c>
       <c r="E9">
-        <v>0.136092272690977</v>
+        <v>0.04000776789959559</v>
       </c>
       <c r="F9">
-        <v>18.06920905681335</v>
+        <v>22.04706602147974</v>
       </c>
       <c r="G9">
-        <v>0.0006886529956953785</v>
+        <v>0.003102614185249832</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04364965508532848</v>
+        <v>0.2410469725006621</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.444742276183689</v>
+        <v>0.1607472741385294</v>
       </c>
       <c r="M9">
-        <v>12.7150594960053</v>
+        <v>10.96069862195753</v>
       </c>
       <c r="N9">
-        <v>1.313825775042915</v>
+        <v>1.537868943929169</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02117248643738812</v>
+        <v>0.09058243514575359</v>
       </c>
       <c r="D10">
-        <v>1.231683566821232</v>
+        <v>0.8680159266000942</v>
       </c>
       <c r="E10">
-        <v>0.136092272690977</v>
+        <v>0.0477691647398828</v>
       </c>
       <c r="F10">
-        <v>18.06920905681335</v>
+        <v>22.30125941166455</v>
       </c>
       <c r="G10">
-        <v>0.0006886529956953785</v>
+        <v>0.003064562736744471</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04364965508532848</v>
+        <v>0.2341635555831978</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.444742276183689</v>
+        <v>0.1841414497032474</v>
       </c>
       <c r="M10">
-        <v>12.7150594960053</v>
+        <v>11.45379173666947</v>
       </c>
       <c r="N10">
-        <v>1.313825775042915</v>
+        <v>1.570455656400355</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02117248643738812</v>
+        <v>0.08991179137747274</v>
       </c>
       <c r="D11">
-        <v>1.231683566821232</v>
+        <v>0.8882423224589502</v>
       </c>
       <c r="E11">
-        <v>0.136092272690977</v>
+        <v>0.05133520238123879</v>
       </c>
       <c r="F11">
-        <v>18.06920905681335</v>
+        <v>22.43886286086257</v>
       </c>
       <c r="G11">
-        <v>0.0006886529956953785</v>
+        <v>0.003047891440407402</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04364965508532848</v>
+        <v>0.2311841363844493</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.444742276183689</v>
+        <v>0.1949754026417878</v>
       </c>
       <c r="M11">
-        <v>12.7150594960053</v>
+        <v>11.68674976435551</v>
       </c>
       <c r="N11">
-        <v>1.313825775042915</v>
+        <v>1.586206036710678</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02117248643738812</v>
+        <v>0.08966193432079628</v>
       </c>
       <c r="D12">
-        <v>1.231683566821232</v>
+        <v>0.8960659223540688</v>
       </c>
       <c r="E12">
-        <v>0.136092272690977</v>
+        <v>0.05269139294244241</v>
       </c>
       <c r="F12">
-        <v>18.06920905681335</v>
+        <v>22.49424104037342</v>
       </c>
       <c r="G12">
-        <v>0.0006886529956953785</v>
+        <v>0.003041668332079648</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04364965508532848</v>
+        <v>0.2300778678330815</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.444742276183689</v>
+        <v>0.1991080599313193</v>
       </c>
       <c r="M12">
-        <v>12.7150594960053</v>
+        <v>11.77626110260366</v>
       </c>
       <c r="N12">
-        <v>1.313825775042915</v>
+        <v>1.592302574001849</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02117248643738812</v>
+        <v>0.08971556369055023</v>
       </c>
       <c r="D13">
-        <v>1.231683566821232</v>
+        <v>0.8943735218377924</v>
       </c>
       <c r="E13">
-        <v>0.136092272690977</v>
+        <v>0.05239904260448469</v>
       </c>
       <c r="F13">
-        <v>18.06920905681335</v>
+        <v>22.48216704183102</v>
       </c>
       <c r="G13">
-        <v>0.0006886529956953785</v>
+        <v>0.00304300461993773</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04364965508532848</v>
+        <v>0.2303151431002277</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.444742276183689</v>
+        <v>0.198216639401366</v>
       </c>
       <c r="M13">
-        <v>12.7150594960053</v>
+        <v>11.75692477040104</v>
       </c>
       <c r="N13">
-        <v>1.313825775042915</v>
+        <v>1.590983711120714</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02117248643738812</v>
+        <v>0.08989115350239452</v>
       </c>
       <c r="D14">
-        <v>1.231683566821232</v>
+        <v>0.8888826313265099</v>
       </c>
       <c r="E14">
-        <v>0.136092272690977</v>
+        <v>0.05144665623990363</v>
       </c>
       <c r="F14">
-        <v>18.06920905681335</v>
+        <v>22.44335264312247</v>
       </c>
       <c r="G14">
-        <v>0.0006886529956953785</v>
+        <v>0.00304737767010721</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04364965508532848</v>
+        <v>0.2310926818434389</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.444742276183689</v>
+        <v>0.195314781305413</v>
       </c>
       <c r="M14">
-        <v>12.7150594960053</v>
+        <v>11.69408765012213</v>
       </c>
       <c r="N14">
-        <v>1.313825775042915</v>
+        <v>1.586704958438588</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02117248643738812</v>
+        <v>0.08999924034207751</v>
       </c>
       <c r="D15">
-        <v>1.231683566821232</v>
+        <v>0.8855409604997817</v>
       </c>
       <c r="E15">
-        <v>0.136092272690977</v>
+        <v>0.05086407100142765</v>
       </c>
       <c r="F15">
-        <v>18.06920905681335</v>
+        <v>22.42000707757012</v>
       </c>
       <c r="G15">
-        <v>0.0006886529956953785</v>
+        <v>0.003050067946904989</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04364965508532848</v>
+        <v>0.2315718123817767</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.444742276183689</v>
+        <v>0.1935413024905017</v>
       </c>
       <c r="M15">
-        <v>12.7150594960053</v>
+        <v>11.65576836434661</v>
       </c>
       <c r="N15">
-        <v>1.313825775042915</v>
+        <v>1.584101287309636</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02117248643738812</v>
+        <v>0.09062683917499292</v>
       </c>
       <c r="D16">
-        <v>1.231683566821232</v>
+        <v>0.8667166013050291</v>
       </c>
       <c r="E16">
-        <v>0.136092272690977</v>
+        <v>0.04753688814022894</v>
       </c>
       <c r="F16">
-        <v>18.06920905681335</v>
+        <v>22.29271816723895</v>
       </c>
       <c r="G16">
-        <v>0.0006886529956953785</v>
+        <v>0.003065664935342776</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04364965508532848</v>
+        <v>0.2343613349885239</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.444742276183689</v>
+        <v>0.1834374948883664</v>
       </c>
       <c r="M16">
-        <v>12.7150594960053</v>
+        <v>11.43874573239157</v>
       </c>
       <c r="N16">
-        <v>1.313825775042915</v>
+        <v>1.569444887075775</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02117248643738812</v>
+        <v>0.09101919420266569</v>
       </c>
       <c r="D17">
-        <v>1.231683566821232</v>
+        <v>0.8554518570684309</v>
       </c>
       <c r="E17">
-        <v>0.136092272690977</v>
+        <v>0.04550532480422476</v>
       </c>
       <c r="F17">
-        <v>18.06920905681335</v>
+        <v>22.22033472353371</v>
       </c>
       <c r="G17">
-        <v>0.0006886529956953785</v>
+        <v>0.003075395413924471</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04364965508532848</v>
+        <v>0.2361116085620338</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.444742276183689</v>
+        <v>0.1772899924172719</v>
       </c>
       <c r="M17">
-        <v>12.7150594960053</v>
+        <v>11.30785991992502</v>
       </c>
       <c r="N17">
-        <v>1.313825775042915</v>
+        <v>1.560690216217921</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02117248643738812</v>
+        <v>0.09124757659378169</v>
       </c>
       <c r="D18">
-        <v>1.231683566821232</v>
+        <v>0.849074115155247</v>
       </c>
       <c r="E18">
-        <v>0.136092272690977</v>
+        <v>0.04434010354536611</v>
       </c>
       <c r="F18">
-        <v>18.06920905681335</v>
+        <v>22.18076249339316</v>
       </c>
       <c r="G18">
-        <v>0.0006886529956953785</v>
+        <v>0.003081052342298456</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04364965508532848</v>
+        <v>0.2371326069733612</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.444742276183689</v>
+        <v>0.1737720093636312</v>
       </c>
       <c r="M18">
-        <v>12.7150594960053</v>
+        <v>11.23338851311442</v>
       </c>
       <c r="N18">
-        <v>1.313825775042915</v>
+        <v>1.555742026665428</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02117248643738812</v>
+        <v>0.09132536949311643</v>
       </c>
       <c r="D19">
-        <v>1.231683566821232</v>
+        <v>0.8469318929663814</v>
       </c>
       <c r="E19">
-        <v>0.136092272690977</v>
+        <v>0.04394612155578415</v>
       </c>
       <c r="F19">
-        <v>18.06920905681335</v>
+        <v>22.16771467407227</v>
       </c>
       <c r="G19">
-        <v>0.0006886529956953785</v>
+        <v>0.00308297807861221</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04364965508532848</v>
+        <v>0.2374807494760702</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.444742276183689</v>
+        <v>0.1725838812464957</v>
       </c>
       <c r="M19">
-        <v>12.7150594960053</v>
+        <v>11.20831148466249</v>
       </c>
       <c r="N19">
-        <v>1.313825775042915</v>
+        <v>1.554081674878432</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02117248643738812</v>
+        <v>0.09097714710454774</v>
       </c>
       <c r="D20">
-        <v>1.231683566821232</v>
+        <v>0.8566404495642814</v>
       </c>
       <c r="E20">
-        <v>0.136092272690977</v>
+        <v>0.04572124356261043</v>
       </c>
       <c r="F20">
-        <v>18.06920905681335</v>
+        <v>22.22782599213548</v>
       </c>
       <c r="G20">
-        <v>0.0006886529956953785</v>
+        <v>0.003074353369131722</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04364965508532848</v>
+        <v>0.2359238093373826</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.444742276183689</v>
+        <v>0.1779425346345107</v>
       </c>
       <c r="M20">
-        <v>12.7150594960053</v>
+        <v>11.32170867526466</v>
       </c>
       <c r="N20">
-        <v>1.313825775042915</v>
+        <v>1.561613141838052</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02117248643738812</v>
+        <v>0.08983946750527849</v>
       </c>
       <c r="D21">
-        <v>1.231683566821232</v>
+        <v>0.8904909095277844</v>
       </c>
       <c r="E21">
-        <v>0.136092272690977</v>
+        <v>0.0517262315161986</v>
       </c>
       <c r="F21">
-        <v>18.06920905681335</v>
+        <v>22.45466368287651</v>
       </c>
       <c r="G21">
-        <v>0.0006886529956953785</v>
+        <v>0.003046090773230426</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04364965508532848</v>
+        <v>0.2308637024273885</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.444742276183689</v>
+        <v>0.1961662905619193</v>
       </c>
       <c r="M21">
-        <v>12.7150594960053</v>
+        <v>11.71250885537739</v>
       </c>
       <c r="N21">
-        <v>1.313825775042915</v>
+        <v>1.587958151499748</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02117248643738812</v>
+        <v>0.08911981541861458</v>
       </c>
       <c r="D22">
-        <v>1.231683566821232</v>
+        <v>0.9135761440163606</v>
       </c>
       <c r="E22">
-        <v>0.136092272690977</v>
+        <v>0.05568507011862778</v>
       </c>
       <c r="F22">
-        <v>18.06920905681335</v>
+        <v>22.62203638740476</v>
       </c>
       <c r="G22">
-        <v>0.0006886529956953785</v>
+        <v>0.003028142904848781</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04364965508532848</v>
+        <v>0.2276847730303011</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.444742276183689</v>
+        <v>0.2082531314368339</v>
       </c>
       <c r="M22">
-        <v>12.7150594960053</v>
+        <v>11.9754952274248</v>
       </c>
       <c r="N22">
-        <v>1.313825775042915</v>
+        <v>1.60594633188515</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02117248643738812</v>
+        <v>0.08950173376541848</v>
       </c>
       <c r="D23">
-        <v>1.231683566821232</v>
+        <v>0.9011641517977864</v>
       </c>
       <c r="E23">
-        <v>0.136092272690977</v>
+        <v>0.05356877924592141</v>
       </c>
       <c r="F23">
-        <v>18.06920905681335</v>
+        <v>22.53091816706717</v>
       </c>
       <c r="G23">
-        <v>0.0006886529956953785</v>
+        <v>0.003037674767958247</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04364965508532848</v>
+        <v>0.2293696560898333</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.444742276183689</v>
+        <v>0.2017851387559517</v>
       </c>
       <c r="M23">
-        <v>12.7150594960053</v>
+        <v>11.8344232682183</v>
       </c>
       <c r="N23">
-        <v>1.313825775042915</v>
+        <v>1.596275549543321</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02117248643738812</v>
+        <v>0.09099614783520593</v>
       </c>
       <c r="D24">
-        <v>1.231683566821232</v>
+        <v>0.8561027806985635</v>
       </c>
       <c r="E24">
-        <v>0.136092272690977</v>
+        <v>0.04562361817588112</v>
       </c>
       <c r="F24">
-        <v>18.06920905681335</v>
+        <v>22.22443283765648</v>
       </c>
       <c r="G24">
-        <v>0.0006886529956953785</v>
+        <v>0.003074824282173135</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04364965508532848</v>
+        <v>0.2360086674558204</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.444742276183689</v>
+        <v>0.1776474697202985</v>
       </c>
       <c r="M24">
-        <v>12.7150594960053</v>
+        <v>11.31544523793761</v>
       </c>
       <c r="N24">
-        <v>1.313825775042915</v>
+        <v>1.561195622370235</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02117248643738812</v>
+        <v>0.09271186910827467</v>
       </c>
       <c r="D25">
-        <v>1.231683566821232</v>
+        <v>0.8113446580392178</v>
       </c>
       <c r="E25">
-        <v>0.136092272690977</v>
+        <v>0.03717626822780318</v>
       </c>
       <c r="F25">
-        <v>18.06920905681335</v>
+        <v>21.97223075996675</v>
       </c>
       <c r="G25">
-        <v>0.0006886529956953785</v>
+        <v>0.003117205193618258</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04364965508532848</v>
+        <v>0.2437157102298162</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.444742276183689</v>
+        <v>0.1522864191493341</v>
       </c>
       <c r="M25">
-        <v>12.7150594960053</v>
+        <v>10.78645306983563</v>
       </c>
       <c r="N25">
-        <v>1.313825775042915</v>
+        <v>1.52669710376324</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,25 +430,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.7490699107137004</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>7.067023956559808</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.157640893078096</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>62.71010590622757</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005984847890525558</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2696084283838118</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.116974056526033</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,120 +468,1230 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.5228248457653706</v>
+      </c>
+      <c r="D3">
+        <v>5.568915480343833</v>
+      </c>
+      <c r="E3">
+        <v>2.325548032795325</v>
+      </c>
+      <c r="F3">
+        <v>49.84590395916598</v>
+      </c>
+      <c r="G3">
+        <v>0.0006444730069580846</v>
+      </c>
+      <c r="H3">
+        <v>0.1624464744385747</v>
+      </c>
+      <c r="I3">
+        <v>0.6687811246936946</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.4237352342203167</v>
+      </c>
+      <c r="D4">
+        <v>4.825751930717558</v>
+      </c>
+      <c r="E4">
+        <v>1.943724862516618</v>
+      </c>
+      <c r="F4">
+        <v>43.39252449881479</v>
+      </c>
+      <c r="G4">
+        <v>0.0006681725857259573</v>
+      </c>
+      <c r="H4">
+        <v>0.1182079464141879</v>
+      </c>
+      <c r="I4">
+        <v>0.4868300733586182</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.3874666007224903</v>
+      </c>
+      <c r="D5">
+        <v>4.540013254260657</v>
+      </c>
+      <c r="E5">
+        <v>1.804421059033771</v>
+      </c>
+      <c r="F5">
+        <v>40.90708413765293</v>
+      </c>
+      <c r="G5">
+        <v>0.0006773888375714191</v>
+      </c>
+      <c r="H5">
+        <v>0.1029980943411601</v>
+      </c>
+      <c r="I5">
+        <v>0.4245186901123716</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.3800814245895481</v>
+      </c>
+      <c r="D6">
+        <v>4.484627647104446</v>
+      </c>
+      <c r="E6">
+        <v>1.780187921242927</v>
+      </c>
+      <c r="F6">
+        <v>40.43370243271943</v>
+      </c>
+      <c r="G6">
+        <v>0.0006790898491736856</v>
+      </c>
+      <c r="H6">
+        <v>0.10034763129973</v>
+      </c>
+      <c r="I6">
+        <v>0.4134822308417831</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.4184879905562013</v>
+      </c>
+      <c r="D7">
+        <v>4.795532662420158</v>
+      </c>
+      <c r="E7">
+        <v>1.935668756100284</v>
+      </c>
+      <c r="F7">
+        <v>43.15532738509779</v>
+      </c>
+      <c r="G7">
+        <v>0.0006688740277627525</v>
+      </c>
+      <c r="H7">
+        <v>0.1171264836471586</v>
+      </c>
+      <c r="I7">
+        <v>0.4817669814633021</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D8">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E8">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F8">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G8">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H8">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I8">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D9">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E9">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F9">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G9">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H9">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I9">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D10">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E10">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F10">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G10">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H10">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I10">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D11">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E11">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F11">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G11">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H11">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I11">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D12">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E12">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F12">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G12">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H12">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I12">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D13">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E13">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F13">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G13">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H13">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I13">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D14">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E14">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F14">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G14">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H14">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I14">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D15">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E15">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F15">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G15">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H15">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I15">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D16">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E16">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F16">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G16">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H16">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I16">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D17">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E17">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F17">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G17">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H17">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I17">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D18">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E18">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F18">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G18">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H18">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I18">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D19">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E19">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F19">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G19">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H19">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I19">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D20">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E20">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F20">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G20">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H20">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I20">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D21">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E21">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F21">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G21">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H21">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I21">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D22">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E22">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F22">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G22">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H22">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I22">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D23">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E23">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F23">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G23">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H23">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I23">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D24">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E24">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F24">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G24">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H24">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I24">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.6495012505470328</v>
+      </c>
+      <c r="D25">
+        <v>6.448504850278709</v>
+      </c>
+      <c r="E25">
+        <v>2.814842500080388</v>
+      </c>
+      <c r="F25">
+        <v>57.46114141819498</v>
+      </c>
+      <c r="G25">
+        <v>0.0006168375364380862</v>
+      </c>
+      <c r="H25">
+        <v>0.2236243329184688</v>
+      </c>
+      <c r="I25">
+        <v>0.9220756018413709</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
@@ -430,40 +430,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7490699107137004</v>
+        <v>0.1412973034146887</v>
       </c>
       <c r="D2">
-        <v>7.067023956559808</v>
+        <v>0.09374194353000576</v>
       </c>
       <c r="E2">
-        <v>3.157640893078096</v>
+        <v>0.08542400067607048</v>
       </c>
       <c r="F2">
-        <v>62.71010590622757</v>
+        <v>1.157840157336764</v>
       </c>
       <c r="G2">
-        <v>0.0005984847890525558</v>
+        <v>0.8498590950214577</v>
       </c>
       <c r="H2">
-        <v>0.2696084283838118</v>
+        <v>0.008313253678357307</v>
       </c>
       <c r="I2">
-        <v>1.116974056526033</v>
+        <v>0.007118001507217642</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6159309637118611</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.836428130331683</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1062663075923993</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.034789667622874</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1007347357716881</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -483,40 +483,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.5228248457653706</v>
+        <v>0.1236840796445193</v>
       </c>
       <c r="D3">
-        <v>5.568915480343833</v>
+        <v>0.08242018498263803</v>
       </c>
       <c r="E3">
-        <v>2.325548032795325</v>
+        <v>0.07637763943655074</v>
       </c>
       <c r="F3">
-        <v>49.84590395916598</v>
+        <v>1.111567790293336</v>
       </c>
       <c r="G3">
-        <v>0.0006444730069580846</v>
+        <v>0.819231082510683</v>
       </c>
       <c r="H3">
-        <v>0.1624464744385747</v>
+        <v>0.01189158735044797</v>
       </c>
       <c r="I3">
-        <v>0.6687811246936946</v>
+        <v>0.01070188559287111</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6082257122070445</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8028118093755339</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09637742208004596</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.387056321386467</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09159479918989177</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -536,40 +536,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4237352342203167</v>
+        <v>0.1127875409493697</v>
       </c>
       <c r="D4">
-        <v>4.825751930717558</v>
+        <v>0.07550865324168399</v>
       </c>
       <c r="E4">
-        <v>1.943724862516618</v>
+        <v>0.07081758339515076</v>
       </c>
       <c r="F4">
-        <v>43.39252449881479</v>
+        <v>1.084023152786514</v>
       </c>
       <c r="G4">
-        <v>0.0006681725857259573</v>
+        <v>0.8012721856497791</v>
       </c>
       <c r="H4">
-        <v>0.1182079464141879</v>
+        <v>0.01449370558988577</v>
       </c>
       <c r="I4">
-        <v>0.4868300733586182</v>
+        <v>0.01340849520224108</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6040138588631976</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7825683649858775</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09026090302534229</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3.98941619623173</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.08603331138004222</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -589,40 +589,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3874666007224903</v>
+        <v>0.1079873676653875</v>
       </c>
       <c r="D5">
-        <v>4.540013254260657</v>
+        <v>0.07279288764055991</v>
       </c>
       <c r="E5">
-        <v>1.804421059033771</v>
+        <v>0.06852184997817901</v>
       </c>
       <c r="F5">
-        <v>40.90708413765293</v>
+        <v>1.0717155328296</v>
       </c>
       <c r="G5">
-        <v>0.0006773888375714191</v>
+        <v>0.792933692150072</v>
       </c>
       <c r="H5">
-        <v>0.1029980943411601</v>
+        <v>0.01566013057877846</v>
       </c>
       <c r="I5">
-        <v>0.4245186901123716</v>
+        <v>0.01472571445137083</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6017961659222664</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.773244954263042</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0876502860884365</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.827336646592926</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.08388520076105976</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -642,40 +642,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3800814245895481</v>
+        <v>0.1067775874288657</v>
       </c>
       <c r="D6">
-        <v>4.484627647104446</v>
+        <v>0.07245508534058587</v>
       </c>
       <c r="E6">
-        <v>1.780187921242927</v>
+        <v>0.06810689266587389</v>
       </c>
       <c r="F6">
-        <v>40.43370243271943</v>
+        <v>1.068112252068801</v>
       </c>
       <c r="G6">
-        <v>0.0006790898491736856</v>
+        <v>0.7900730577841557</v>
       </c>
       <c r="H6">
-        <v>0.10034763129973</v>
+        <v>0.01587025355785487</v>
       </c>
       <c r="I6">
-        <v>0.4134822308417831</v>
+        <v>0.01507221811890513</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6006716672842458</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7702786586954176</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0870869608976399</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.800405981322456</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.0836604047541627</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -695,40 +695,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4184879905562013</v>
+        <v>0.1115941253227675</v>
       </c>
       <c r="D7">
-        <v>4.795532662420158</v>
+        <v>0.07578018663248542</v>
       </c>
       <c r="E7">
-        <v>1.935668756100284</v>
+        <v>0.07069468939364398</v>
       </c>
       <c r="F7">
-        <v>43.15532738509779</v>
+        <v>1.079562929182536</v>
       </c>
       <c r="G7">
-        <v>0.0006688740277627525</v>
+        <v>0.7970940776800148</v>
       </c>
       <c r="H7">
-        <v>0.1171264836471586</v>
+        <v>0.01453642806055044</v>
       </c>
       <c r="I7">
-        <v>0.4817669814633021</v>
+        <v>0.01373546791342317</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6018995253488555</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7785504821053379</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0898723338944194</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.987183802950085</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.08636344258552953</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -748,40 +748,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.6495012505470328</v>
+        <v>0.133727189369182</v>
       </c>
       <c r="D8">
-        <v>6.448504850278709</v>
+        <v>0.09023975860070976</v>
       </c>
       <c r="E8">
-        <v>2.814842500080388</v>
+        <v>0.08218238710637848</v>
       </c>
       <c r="F8">
-        <v>57.46114141819498</v>
+        <v>1.13601440754735</v>
       </c>
       <c r="G8">
-        <v>0.0006168375364380862</v>
+        <v>0.8337339168376587</v>
       </c>
       <c r="H8">
-        <v>0.2236243329184688</v>
+        <v>0.009488264603959365</v>
       </c>
       <c r="I8">
-        <v>0.9220756018413709</v>
+        <v>0.008606263476932163</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6104143088418681</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.819590385754303</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1023936332590409</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.811316508462312</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.0980512199912198</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -801,40 +801,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.6495012505470328</v>
+        <v>0.1786524571652279</v>
       </c>
       <c r="D9">
-        <v>6.448504850278709</v>
+        <v>0.1184189505561903</v>
       </c>
       <c r="E9">
-        <v>2.814842500080388</v>
+        <v>0.1048877226851381</v>
       </c>
       <c r="F9">
-        <v>57.46114141819498</v>
+        <v>1.262006501744693</v>
       </c>
       <c r="G9">
-        <v>0.0006168375364380862</v>
+        <v>0.9203209585986087</v>
       </c>
       <c r="H9">
-        <v>0.2236243329184688</v>
+        <v>0.002984694796962395</v>
       </c>
       <c r="I9">
-        <v>0.9220756018413709</v>
+        <v>0.00238550617196065</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6352756919829545</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9106271370464256</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1272949855884775</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.430359706537388</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1207920373358959</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -854,40 +854,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6495012505470328</v>
+        <v>0.2089560751815611</v>
       </c>
       <c r="D10">
-        <v>6.448504850278709</v>
+        <v>0.1386022790996009</v>
       </c>
       <c r="E10">
-        <v>2.814842500080388</v>
+        <v>0.1183852349073753</v>
       </c>
       <c r="F10">
-        <v>57.46114141819498</v>
+        <v>1.335116206510705</v>
       </c>
       <c r="G10">
-        <v>0.0006168375364380862</v>
+        <v>0.9682299309776852</v>
       </c>
       <c r="H10">
-        <v>0.2236243329184688</v>
+        <v>0.00087111863757805</v>
       </c>
       <c r="I10">
-        <v>0.9220756018413709</v>
+        <v>0.0009780706270250406</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6459614441320696</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9617624063867609</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1401590182717882</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.62418160073878</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1327096371712955</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -907,40 +907,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6495012505470328</v>
+        <v>0.2038035364361264</v>
       </c>
       <c r="D11">
-        <v>6.448504850278709</v>
+        <v>0.1395799445134998</v>
       </c>
       <c r="E11">
-        <v>2.814842500080388</v>
+        <v>0.09809534266501885</v>
       </c>
       <c r="F11">
-        <v>57.46114141819498</v>
+        <v>1.170081229133729</v>
       </c>
       <c r="G11">
-        <v>0.0006168375364380862</v>
+        <v>0.8245184535077641</v>
       </c>
       <c r="H11">
-        <v>0.2236243329184688</v>
+        <v>0.01928748349961396</v>
       </c>
       <c r="I11">
-        <v>0.9220756018413709</v>
+        <v>0.001430587172760234</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.567134991846558</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8407692519739314</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1058574765132896</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.161959027725743</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09696790796505894</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -960,40 +960,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6495012505470328</v>
+        <v>0.1949753257650144</v>
       </c>
       <c r="D12">
-        <v>6.448504850278709</v>
+        <v>0.1354862088856095</v>
       </c>
       <c r="E12">
-        <v>2.814842500080388</v>
+        <v>0.08053334847189575</v>
       </c>
       <c r="F12">
-        <v>57.46114141819498</v>
+        <v>1.029983344415086</v>
       </c>
       <c r="G12">
-        <v>0.0006168375364380862</v>
+        <v>0.7076099786486907</v>
       </c>
       <c r="H12">
-        <v>0.2236243329184688</v>
+        <v>0.05800777151707592</v>
       </c>
       <c r="I12">
-        <v>0.9220756018413709</v>
+        <v>0.001429932373506304</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5053578231777891</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.7400883837264303</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08171147441368376</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.363090643481314</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07032964904278671</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1013,40 +1013,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6495012505470328</v>
+        <v>0.1810489725483961</v>
       </c>
       <c r="D13">
-        <v>6.448504850278709</v>
+        <v>0.1277634536924523</v>
       </c>
       <c r="E13">
-        <v>2.814842500080388</v>
+        <v>0.06401778884535148</v>
       </c>
       <c r="F13">
-        <v>57.46114141819498</v>
+        <v>0.8943197034316839</v>
       </c>
       <c r="G13">
-        <v>0.0006168375364380862</v>
+        <v>0.5980627125086073</v>
       </c>
       <c r="H13">
-        <v>0.2236243329184688</v>
+        <v>0.1139880771574724</v>
       </c>
       <c r="I13">
-        <v>0.9220756018413709</v>
+        <v>0.001401807643256703</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4497377544878134</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6431967276265098</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06351920847917647</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.314348499041614</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04982171226416909</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1066,40 +1066,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6495012505470328</v>
+        <v>0.168815559132625</v>
       </c>
       <c r="D14">
-        <v>6.448504850278709</v>
+        <v>0.1208430456242269</v>
       </c>
       <c r="E14">
-        <v>2.814842500080388</v>
+        <v>0.0533376428274277</v>
       </c>
       <c r="F14">
-        <v>57.46114141819498</v>
+        <v>0.8023221233174453</v>
       </c>
       <c r="G14">
-        <v>0.0006168375364380862</v>
+        <v>0.5255910790403249</v>
       </c>
       <c r="H14">
-        <v>0.2236243329184688</v>
+        <v>0.1636105897294726</v>
       </c>
       <c r="I14">
-        <v>0.9220756018413709</v>
+        <v>0.001511612879227187</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4139486284501146</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5776332537986519</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05447808980800772</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.167101216927847</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03927449633032687</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1119,40 +1119,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6495012505470328</v>
+        <v>0.1643777291914006</v>
       </c>
       <c r="D15">
-        <v>6.448504850278709</v>
+        <v>0.1185337698108668</v>
       </c>
       <c r="E15">
-        <v>2.814842500080388</v>
+        <v>0.05067595448989337</v>
       </c>
       <c r="F15">
-        <v>57.46114141819498</v>
+        <v>0.7788306529916866</v>
       </c>
       <c r="G15">
-        <v>0.0006168375364380862</v>
+        <v>0.5075218161865962</v>
       </c>
       <c r="H15">
-        <v>0.2236243329184688</v>
+        <v>0.1762651596866789</v>
       </c>
       <c r="I15">
-        <v>0.9220756018413709</v>
+        <v>0.001686813466966974</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4055594168363257</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5607521110613121</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05263295653722988</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.077981516582668</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0372013881084623</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1172,40 +1172,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6495012505470328</v>
+        <v>0.1539141134391144</v>
       </c>
       <c r="D16">
-        <v>6.448504850278709</v>
+        <v>0.1117664862511987</v>
       </c>
       <c r="E16">
-        <v>2.814842500080388</v>
+        <v>0.04872692472527085</v>
       </c>
       <c r="F16">
-        <v>57.46114141819498</v>
+        <v>0.7742881568336912</v>
       </c>
       <c r="G16">
-        <v>0.0006168375364380862</v>
+        <v>0.5078970109190806</v>
       </c>
       <c r="H16">
-        <v>0.2236243329184688</v>
+        <v>0.1643852024968169</v>
       </c>
       <c r="I16">
-        <v>0.9220756018413709</v>
+        <v>0.002255504775312112</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4112980716669341</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5577363713822265</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.051342753739271</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.571662659775484</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03698526591294105</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1225,40 +1225,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.6495012505470328</v>
+        <v>0.1522519300672371</v>
       </c>
       <c r="D17">
-        <v>6.448504850278709</v>
+        <v>0.1102533319852057</v>
       </c>
       <c r="E17">
-        <v>2.814842500080388</v>
+        <v>0.05259129689122233</v>
       </c>
       <c r="F17">
-        <v>57.46114141819498</v>
+        <v>0.8185162513421744</v>
       </c>
       <c r="G17">
-        <v>0.0006168375364380862</v>
+        <v>0.5456541408808704</v>
       </c>
       <c r="H17">
-        <v>0.2236243329184688</v>
+        <v>0.1271691158964217</v>
       </c>
       <c r="I17">
-        <v>0.9220756018413709</v>
+        <v>0.002713472138516693</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4342873767092641</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5892951919480183</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0543779046991606</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.262699657789994</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04176811113434731</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1278,40 +1278,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.6495012505470328</v>
+        <v>0.1589120843673868</v>
       </c>
       <c r="D18">
-        <v>6.448504850278709</v>
+        <v>0.1127890729465406</v>
       </c>
       <c r="E18">
-        <v>2.814842500080388</v>
+        <v>0.06313442938067126</v>
       </c>
       <c r="F18">
-        <v>57.46114141819498</v>
+        <v>0.916860780044459</v>
       </c>
       <c r="G18">
-        <v>0.0006168375364380862</v>
+        <v>0.6267036967271196</v>
       </c>
       <c r="H18">
-        <v>0.2236243329184688</v>
+        <v>0.07449203200684451</v>
       </c>
       <c r="I18">
-        <v>0.9220756018413709</v>
+        <v>0.002619632392396376</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4780572452129519</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6600371822846967</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06507474485436759</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.087006859890721</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05458031384293349</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1331,40 +1331,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.6495012505470328</v>
+        <v>0.1700923158393834</v>
       </c>
       <c r="D19">
-        <v>6.448504850278709</v>
+        <v>0.1189578430847007</v>
       </c>
       <c r="E19">
-        <v>2.814842500080388</v>
+        <v>0.08004802963512603</v>
       </c>
       <c r="F19">
-        <v>57.46114141819498</v>
+        <v>1.052926368024487</v>
       </c>
       <c r="G19">
-        <v>0.0006168375364380862</v>
+        <v>0.7383751825142326</v>
       </c>
       <c r="H19">
-        <v>0.2236243329184688</v>
+        <v>0.02889548436467493</v>
       </c>
       <c r="I19">
-        <v>0.9220756018413709</v>
+        <v>0.002595310230939063</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5359063778244177</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.75724498648637</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08614260583649624</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.03032925265785</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07826705123345334</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1384,40 +1384,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6495012505470328</v>
+        <v>0.1972970891130359</v>
       </c>
       <c r="D20">
-        <v>6.448504850278709</v>
+        <v>0.1342212146359856</v>
       </c>
       <c r="E20">
-        <v>2.814842500080388</v>
+        <v>0.1144067881048301</v>
       </c>
       <c r="F20">
-        <v>57.46114141819498</v>
+        <v>1.301245257486784</v>
       </c>
       <c r="G20">
-        <v>0.0006168375364380862</v>
+        <v>0.9418620153785326</v>
       </c>
       <c r="H20">
-        <v>0.2236243329184688</v>
+        <v>0.00126751721137186</v>
       </c>
       <c r="I20">
-        <v>0.9220756018413709</v>
+        <v>0.001949607277699883</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6361367315362969</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9353424027351238</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1354599797466207</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.309800249224281</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1304655396048062</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1437,40 +1437,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6495012505470328</v>
+        <v>0.2243682973293915</v>
       </c>
       <c r="D21">
-        <v>6.448504850278709</v>
+        <v>0.1511837879452003</v>
       </c>
       <c r="E21">
-        <v>2.814842500080388</v>
+        <v>0.1298625550548991</v>
       </c>
       <c r="F21">
-        <v>57.46114141819498</v>
+        <v>1.397922609757501</v>
       </c>
       <c r="G21">
-        <v>0.0006168375364380862</v>
+        <v>1.013301425604013</v>
       </c>
       <c r="H21">
-        <v>0.2236243329184688</v>
+        <v>0.0001084192331841649</v>
       </c>
       <c r="I21">
-        <v>0.9220756018413709</v>
+        <v>0.001715053866728766</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6619664088158999</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.003904720598179</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1535356276030271</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.229677745702361</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1478374976836889</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1490,40 +1490,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6495012505470328</v>
+        <v>0.2426256809394118</v>
       </c>
       <c r="D22">
-        <v>6.448504850278709</v>
+        <v>0.1614393878051033</v>
       </c>
       <c r="E22">
-        <v>2.814842500080388</v>
+        <v>0.1384951896869779</v>
       </c>
       <c r="F22">
-        <v>57.46114141819498</v>
+        <v>1.456400854125093</v>
       </c>
       <c r="G22">
-        <v>0.0006168375364380862</v>
+        <v>1.056860241387113</v>
       </c>
       <c r="H22">
-        <v>0.2236243329184688</v>
+        <v>1.717757180008661E-05</v>
       </c>
       <c r="I22">
-        <v>0.9220756018413709</v>
+        <v>0.001952629112435211</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6773094399916317</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.046099038501112</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.163224179190756</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.832845874636519</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1560672596645603</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1543,40 +1543,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6495012505470328</v>
+        <v>0.2342615385305749</v>
       </c>
       <c r="D23">
-        <v>6.448504850278709</v>
+        <v>0.1555817646312079</v>
       </c>
       <c r="E23">
-        <v>2.814842500080388</v>
+        <v>0.1339966734162878</v>
       </c>
       <c r="F23">
-        <v>57.46114141819498</v>
+        <v>1.430116328084708</v>
       </c>
       <c r="G23">
-        <v>0.0006168375364380862</v>
+        <v>1.038261150069516</v>
       </c>
       <c r="H23">
-        <v>0.2236243329184688</v>
+        <v>1.217867005021134E-05</v>
       </c>
       <c r="I23">
-        <v>0.9220756018413709</v>
+        <v>0.001462792442385563</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6714701187193555</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.028118623434075</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1584819525744052</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.510890419066072</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1512231607179473</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1596,40 +1596,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6495012505470328</v>
+        <v>0.2005171391576965</v>
       </c>
       <c r="D24">
-        <v>6.448504850278709</v>
+        <v>0.1341651089787916</v>
       </c>
       <c r="E24">
-        <v>2.814842500080388</v>
+        <v>0.1168754804325083</v>
       </c>
       <c r="F24">
-        <v>57.46114141819498</v>
+        <v>1.325604562400727</v>
       </c>
       <c r="G24">
-        <v>0.0006168375364380862</v>
+        <v>0.9632720115998552</v>
       </c>
       <c r="H24">
-        <v>0.2236243329184688</v>
+        <v>0.001093591912973535</v>
       </c>
       <c r="I24">
-        <v>0.9220756018413709</v>
+        <v>0.0014371354906908</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.647139516579017</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9543727994392839</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1398887182644728</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.295621160010285</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1337750329123537</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1649,40 +1649,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.6495012505470328</v>
+        <v>0.1644480798800174</v>
       </c>
       <c r="D25">
-        <v>6.448504850278709</v>
+        <v>0.1113126232399111</v>
       </c>
       <c r="E25">
-        <v>2.814842500080388</v>
+        <v>0.09856563285309505</v>
       </c>
       <c r="F25">
-        <v>57.46114141819498</v>
+        <v>1.219244329720865</v>
       </c>
       <c r="G25">
-        <v>0.0006168375364380862</v>
+        <v>0.8886512039415635</v>
       </c>
       <c r="H25">
-        <v>0.2236243329184688</v>
+        <v>0.004369223442908354</v>
       </c>
       <c r="I25">
-        <v>0.9220756018413709</v>
+        <v>0.004045713917911087</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6242914289992854</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8785023940372341</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1199302050476305</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.991541350702448</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1152434463997523</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1412973034146887</v>
+        <v>0.09008075588903353</v>
       </c>
       <c r="D2">
-        <v>0.09374194353000576</v>
+        <v>0.1074091479808033</v>
       </c>
       <c r="E2">
-        <v>0.08542400067607048</v>
+        <v>0.0823114205338733</v>
       </c>
       <c r="F2">
-        <v>1.157840157336764</v>
+        <v>0.9725145421167909</v>
       </c>
       <c r="G2">
-        <v>0.8498590950214577</v>
+        <v>0.6673198802883036</v>
       </c>
       <c r="H2">
-        <v>0.008313253678357307</v>
+        <v>0.006466671461569873</v>
       </c>
       <c r="I2">
-        <v>0.007118001507217642</v>
+        <v>0.004610538759967753</v>
       </c>
       <c r="J2">
-        <v>0.6159309637118611</v>
+        <v>0.5353055840546546</v>
       </c>
       <c r="K2">
-        <v>0.836428130331683</v>
+        <v>0.6616613071264794</v>
       </c>
       <c r="L2">
-        <v>0.1062663075923993</v>
+        <v>0.2873131037853796</v>
       </c>
       <c r="M2">
-        <v>5.034789667622874</v>
+        <v>0.2121207219585912</v>
       </c>
       <c r="N2">
-        <v>0.1007347357716881</v>
+        <v>0.09206951960599952</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.042179764698517</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1243502046682039</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1236840796445193</v>
+        <v>0.07903156640486486</v>
       </c>
       <c r="D3">
-        <v>0.08242018498263803</v>
+        <v>0.09417854323258723</v>
       </c>
       <c r="E3">
-        <v>0.07637763943655074</v>
+        <v>0.0739077467784881</v>
       </c>
       <c r="F3">
-        <v>1.111567790293336</v>
+        <v>0.9457556035861572</v>
       </c>
       <c r="G3">
-        <v>0.819231082510683</v>
+        <v>0.6577623865921538</v>
       </c>
       <c r="H3">
-        <v>0.01189158735044797</v>
+        <v>0.009286676570627039</v>
       </c>
       <c r="I3">
-        <v>0.01070188559287111</v>
+        <v>0.007005994711159147</v>
       </c>
       <c r="J3">
-        <v>0.6082257122070445</v>
+        <v>0.5305490627185634</v>
       </c>
       <c r="K3">
-        <v>0.8028118093755339</v>
+        <v>0.6449000432200336</v>
       </c>
       <c r="L3">
-        <v>0.09637742208004596</v>
+        <v>0.2868083334021065</v>
       </c>
       <c r="M3">
-        <v>4.387056321386467</v>
+        <v>0.2012576821448491</v>
       </c>
       <c r="N3">
-        <v>0.09159479918989177</v>
+        <v>0.08426772269768179</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.393849775762192</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1134426489928373</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1127875409493697</v>
+        <v>0.07219015001593476</v>
       </c>
       <c r="D4">
-        <v>0.07550865324168399</v>
+        <v>0.08610855340931067</v>
       </c>
       <c r="E4">
-        <v>0.07081758339515076</v>
+        <v>0.06873304639982081</v>
       </c>
       <c r="F4">
-        <v>1.084023152786514</v>
+        <v>0.9299158631553439</v>
       </c>
       <c r="G4">
-        <v>0.8012721856497791</v>
+        <v>0.6527201865989696</v>
       </c>
       <c r="H4">
-        <v>0.01449370558988577</v>
+        <v>0.01134241143392109</v>
       </c>
       <c r="I4">
-        <v>0.01340849520224108</v>
+        <v>0.008855373863968286</v>
       </c>
       <c r="J4">
-        <v>0.6040138588631976</v>
+        <v>0.5277574344042222</v>
       </c>
       <c r="K4">
-        <v>0.7825683649858775</v>
+        <v>0.634764360274346</v>
       </c>
       <c r="L4">
-        <v>0.09026090302534229</v>
+        <v>0.2862987135442694</v>
       </c>
       <c r="M4">
-        <v>3.98941619623173</v>
+        <v>0.1954458479677683</v>
       </c>
       <c r="N4">
-        <v>0.08603331138004222</v>
+        <v>0.07941724884587842</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.995511008603046</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1068289418052757</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1079873676653875</v>
+        <v>0.06913084694307514</v>
       </c>
       <c r="D5">
-        <v>0.07279288764055991</v>
+        <v>0.08292257743967468</v>
       </c>
       <c r="E5">
-        <v>0.06852184997817901</v>
+        <v>0.06659512345414598</v>
       </c>
       <c r="F5">
-        <v>1.0717155328296</v>
+        <v>0.922528022602215</v>
       </c>
       <c r="G5">
-        <v>0.792933692150072</v>
+        <v>0.649885347167384</v>
       </c>
       <c r="H5">
-        <v>0.01566013057877846</v>
+        <v>0.01226502223896388</v>
       </c>
       <c r="I5">
-        <v>0.01472571445137083</v>
+        <v>0.009801138845572765</v>
       </c>
       <c r="J5">
-        <v>0.6017961659222664</v>
+        <v>0.5261242501112804</v>
       </c>
       <c r="K5">
-        <v>0.773244954263042</v>
+        <v>0.6297333979687494</v>
       </c>
       <c r="L5">
-        <v>0.0876502860884365</v>
+        <v>0.28562801301916</v>
       </c>
       <c r="M5">
-        <v>3.827336646592926</v>
+        <v>0.1930008769037528</v>
       </c>
       <c r="N5">
-        <v>0.08388520076105976</v>
+        <v>0.07733578357381887</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.833070023297523</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1042614903569259</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1067775874288657</v>
+        <v>0.06831166417872936</v>
       </c>
       <c r="D6">
-        <v>0.07245508534058587</v>
+        <v>0.08250492189115022</v>
       </c>
       <c r="E6">
-        <v>0.06810689266587389</v>
+        <v>0.06620972586798501</v>
       </c>
       <c r="F6">
-        <v>1.068112252068801</v>
+        <v>0.9200013728674037</v>
       </c>
       <c r="G6">
-        <v>0.7900730577841557</v>
+        <v>0.6482371687903594</v>
       </c>
       <c r="H6">
-        <v>0.01587025355785487</v>
+        <v>0.012431226821858</v>
       </c>
       <c r="I6">
-        <v>0.01507221811890513</v>
+        <v>0.01009587532633738</v>
       </c>
       <c r="J6">
-        <v>0.6006716672842458</v>
+        <v>0.5252132699521184</v>
       </c>
       <c r="K6">
-        <v>0.7702786586954176</v>
+        <v>0.627758978362813</v>
       </c>
       <c r="L6">
-        <v>0.0870869608976399</v>
+        <v>0.2850109572841326</v>
       </c>
       <c r="M6">
-        <v>3.800405981322456</v>
+        <v>0.1922547377407646</v>
       </c>
       <c r="N6">
-        <v>0.0836604047541627</v>
+        <v>0.07688059919148671</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.80607266218658</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1039689726512805</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1115941253227675</v>
+        <v>0.07158138221765142</v>
       </c>
       <c r="D7">
-        <v>0.07578018663248542</v>
+        <v>0.08667197384737335</v>
       </c>
       <c r="E7">
-        <v>0.07069468939364398</v>
+        <v>0.0686921349439551</v>
       </c>
       <c r="F7">
-        <v>1.079562929182536</v>
+        <v>0.9241735838190479</v>
       </c>
       <c r="G7">
-        <v>0.7970940776800148</v>
+        <v>0.651721797620425</v>
       </c>
       <c r="H7">
-        <v>0.01453642806055044</v>
+        <v>0.01138579508009792</v>
       </c>
       <c r="I7">
-        <v>0.01373546791342317</v>
+        <v>0.009218056564995081</v>
       </c>
       <c r="J7">
-        <v>0.6018995253488555</v>
+        <v>0.5204313482812921</v>
       </c>
       <c r="K7">
-        <v>0.7785504821053379</v>
+        <v>0.63015489165209</v>
       </c>
       <c r="L7">
-        <v>0.0898723338944194</v>
+        <v>0.2843275106591889</v>
       </c>
       <c r="M7">
-        <v>3.987183802950085</v>
+        <v>0.1939693781976182</v>
       </c>
       <c r="N7">
-        <v>0.08636344258552953</v>
+        <v>0.07905223196530642</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>3.99323922381933</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1071312534404711</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.133727189369182</v>
+        <v>0.08609221946211676</v>
       </c>
       <c r="D8">
-        <v>0.09023975860070976</v>
+        <v>0.104261547917389</v>
       </c>
       <c r="E8">
-        <v>0.08218238710637848</v>
+        <v>0.07954278964719563</v>
       </c>
       <c r="F8">
-        <v>1.13601440754735</v>
+        <v>0.9516501038421126</v>
       </c>
       <c r="G8">
-        <v>0.8337339168376587</v>
+        <v>0.667256309362827</v>
       </c>
       <c r="H8">
-        <v>0.009488264603959365</v>
+        <v>0.007415634575245217</v>
       </c>
       <c r="I8">
-        <v>0.008606263476932163</v>
+        <v>0.005781591067777647</v>
       </c>
       <c r="J8">
-        <v>0.6104143088418681</v>
+        <v>0.513258773125898</v>
       </c>
       <c r="K8">
-        <v>0.819590385754303</v>
+        <v>0.6470743494169042</v>
       </c>
       <c r="L8">
-        <v>0.1023936332590409</v>
+        <v>0.2835999629122057</v>
       </c>
       <c r="M8">
-        <v>4.811316508462312</v>
+        <v>0.2051948678191344</v>
       </c>
       <c r="N8">
-        <v>0.0980512199912198</v>
+        <v>0.08886640266642587</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>4.818448118596848</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1209710662254579</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1786524571652279</v>
+        <v>0.1147316019830527</v>
       </c>
       <c r="D9">
-        <v>0.1184189505561903</v>
+        <v>0.1375842947843466</v>
       </c>
       <c r="E9">
-        <v>0.1048877226851381</v>
+        <v>0.1006387761364067</v>
       </c>
       <c r="F9">
-        <v>1.262006501744693</v>
+        <v>1.024573089934094</v>
       </c>
       <c r="G9">
-        <v>0.9203209585986087</v>
+        <v>0.7023628979629422</v>
       </c>
       <c r="H9">
-        <v>0.002984694796962395</v>
+        <v>0.002306002545956698</v>
       </c>
       <c r="I9">
-        <v>0.00238550617196065</v>
+        <v>0.001696159567834421</v>
       </c>
       <c r="J9">
-        <v>0.6352756919829545</v>
+        <v>0.5231046406968147</v>
       </c>
       <c r="K9">
-        <v>0.9106271370464256</v>
+        <v>0.6924306702346996</v>
       </c>
       <c r="L9">
-        <v>0.1272949855884775</v>
+        <v>0.2850704314447867</v>
       </c>
       <c r="M9">
-        <v>6.430359706537388</v>
+        <v>0.2377707876840844</v>
       </c>
       <c r="N9">
-        <v>0.1207920373358959</v>
+        <v>0.1083555025261589</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>6.436628055510198</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1482792442966385</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2089560751815611</v>
+        <v>0.1361327464227031</v>
       </c>
       <c r="D10">
-        <v>0.1386022790996009</v>
+        <v>0.1631413584497778</v>
       </c>
       <c r="E10">
-        <v>0.1183852349073753</v>
+        <v>0.1134594754333307</v>
       </c>
       <c r="F10">
-        <v>1.335116206510705</v>
+        <v>1.05132056112798</v>
       </c>
       <c r="G10">
-        <v>0.9682299309776852</v>
+        <v>0.7319005967160166</v>
       </c>
       <c r="H10">
-        <v>0.00087111863757805</v>
+        <v>0.0007152881794172394</v>
       </c>
       <c r="I10">
-        <v>0.0009780706270250406</v>
+        <v>0.001087732887356196</v>
       </c>
       <c r="J10">
-        <v>0.6459614441320696</v>
+        <v>0.4937807747723042</v>
       </c>
       <c r="K10">
-        <v>0.9617624063867609</v>
+        <v>0.7061041370762737</v>
       </c>
       <c r="L10">
-        <v>0.1401590182717882</v>
+        <v>0.2777926820390633</v>
       </c>
       <c r="M10">
-        <v>7.62418160073878</v>
+        <v>0.2579725998070188</v>
       </c>
       <c r="N10">
-        <v>0.1327096371712955</v>
+        <v>0.1177530265519096</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>7.627084500314083</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.1626488862834137</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2038035364361264</v>
+        <v>0.139592440721529</v>
       </c>
       <c r="D11">
-        <v>0.1395799445134998</v>
+        <v>0.1669009526418108</v>
       </c>
       <c r="E11">
-        <v>0.09809534266501885</v>
+        <v>0.09467104583773178</v>
       </c>
       <c r="F11">
-        <v>1.170081229133729</v>
+        <v>0.897268009907414</v>
       </c>
       <c r="G11">
-        <v>0.8245184535077641</v>
+        <v>0.6470364841191838</v>
       </c>
       <c r="H11">
-        <v>0.01928748349961396</v>
+        <v>0.01919370065794368</v>
       </c>
       <c r="I11">
-        <v>0.001430587172760234</v>
+        <v>0.001746928696619854</v>
       </c>
       <c r="J11">
-        <v>0.567134991846558</v>
+        <v>0.3858605890102993</v>
       </c>
       <c r="K11">
-        <v>0.8407692519739314</v>
+        <v>0.6012129619088142</v>
       </c>
       <c r="L11">
-        <v>0.1058574765132896</v>
+        <v>0.2356955969504853</v>
       </c>
       <c r="M11">
-        <v>8.161959027725743</v>
+        <v>0.2229246052790614</v>
       </c>
       <c r="N11">
-        <v>0.09696790796505894</v>
+        <v>0.08847442170480235</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.163342337651102</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1202533092034628</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1949753257650144</v>
+        <v>0.1382022966802339</v>
       </c>
       <c r="D12">
-        <v>0.1354862088856095</v>
+        <v>0.1627796269383737</v>
       </c>
       <c r="E12">
-        <v>0.08053334847189575</v>
+        <v>0.07806130576609149</v>
       </c>
       <c r="F12">
-        <v>1.029983344415086</v>
+        <v>0.7821261956723404</v>
       </c>
       <c r="G12">
-        <v>0.7076099786486907</v>
+        <v>0.569174927249847</v>
       </c>
       <c r="H12">
-        <v>0.05800777151707592</v>
+        <v>0.05791411229159138</v>
       </c>
       <c r="I12">
-        <v>0.001429932373506304</v>
+        <v>0.001756811998509633</v>
       </c>
       <c r="J12">
-        <v>0.5053578231777891</v>
+        <v>0.3310167640627952</v>
       </c>
       <c r="K12">
-        <v>0.7400883837264303</v>
+        <v>0.5250851765938975</v>
       </c>
       <c r="L12">
-        <v>0.08171147441368376</v>
+        <v>0.2078021618132304</v>
       </c>
       <c r="M12">
-        <v>8.363090643481314</v>
+        <v>0.1942895325389387</v>
       </c>
       <c r="N12">
-        <v>0.07032964904278671</v>
+        <v>0.06893243383842318</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.364302509838353</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.08810076145610424</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1810489725483961</v>
+        <v>0.1309493174383505</v>
       </c>
       <c r="D13">
-        <v>0.1277634536924523</v>
+        <v>0.1521333543327188</v>
       </c>
       <c r="E13">
-        <v>0.06401778884535148</v>
+        <v>0.06210399623710039</v>
       </c>
       <c r="F13">
-        <v>0.8943197034316839</v>
+        <v>0.6863332325846727</v>
       </c>
       <c r="G13">
-        <v>0.5980627125086073</v>
+        <v>0.4836750744989473</v>
       </c>
       <c r="H13">
-        <v>0.1139880771574724</v>
+        <v>0.1138388991199122</v>
       </c>
       <c r="I13">
-        <v>0.001401807643256703</v>
+        <v>0.00167815200306709</v>
       </c>
       <c r="J13">
-        <v>0.4497377544878134</v>
+        <v>0.3079610408174034</v>
       </c>
       <c r="K13">
-        <v>0.6431967276265098</v>
+        <v>0.4628719180437528</v>
       </c>
       <c r="L13">
-        <v>0.06351920847917647</v>
+        <v>0.1869109334266632</v>
       </c>
       <c r="M13">
-        <v>8.314348499041614</v>
+        <v>0.1682250955509055</v>
       </c>
       <c r="N13">
-        <v>0.04982171226416909</v>
+        <v>0.05522000476894817</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.316655087249103</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.06274102378917235</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.168815559132625</v>
+        <v>0.1231234394252709</v>
       </c>
       <c r="D14">
-        <v>0.1208430456242269</v>
+        <v>0.1420014594769867</v>
       </c>
       <c r="E14">
-        <v>0.0533376428274277</v>
+        <v>0.05169694083926579</v>
       </c>
       <c r="F14">
-        <v>0.8023221233174453</v>
+        <v>0.6270382735324844</v>
       </c>
       <c r="G14">
-        <v>0.5255910790403249</v>
+        <v>0.4228327146634143</v>
       </c>
       <c r="H14">
-        <v>0.1636105897294726</v>
+        <v>0.1633843962263342</v>
       </c>
       <c r="I14">
-        <v>0.001511612879227187</v>
+        <v>0.001718153903727426</v>
       </c>
       <c r="J14">
-        <v>0.4139486284501146</v>
+        <v>0.302166890550069</v>
       </c>
       <c r="K14">
-        <v>0.5776332537986519</v>
+        <v>0.4247433666281779</v>
       </c>
       <c r="L14">
-        <v>0.05447808980800772</v>
+        <v>0.1748298984637131</v>
       </c>
       <c r="M14">
-        <v>8.167101216927847</v>
+        <v>0.1511290045612768</v>
       </c>
       <c r="N14">
-        <v>0.03927449633032687</v>
+        <v>0.04907333420146776</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.170650963408548</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04920967784272534</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1643777291914006</v>
+        <v>0.1197749347227273</v>
       </c>
       <c r="D15">
-        <v>0.1185337698108668</v>
+        <v>0.1384091838733923</v>
       </c>
       <c r="E15">
-        <v>0.05067595448989337</v>
+        <v>0.04907632786599159</v>
       </c>
       <c r="F15">
-        <v>0.7788306529916866</v>
+        <v>0.6140898559467018</v>
       </c>
       <c r="G15">
-        <v>0.5075218161865962</v>
+        <v>0.4061743674689424</v>
       </c>
       <c r="H15">
-        <v>0.1762651596866789</v>
+        <v>0.1759982432368616</v>
       </c>
       <c r="I15">
-        <v>0.001686813466966974</v>
+        <v>0.001871166767357657</v>
       </c>
       <c r="J15">
-        <v>0.4055594168363257</v>
+        <v>0.3044944175070938</v>
       </c>
       <c r="K15">
-        <v>0.5607521110613121</v>
+        <v>0.41642162676618</v>
       </c>
       <c r="L15">
-        <v>0.05263295653722988</v>
+        <v>0.1724906449191472</v>
       </c>
       <c r="M15">
-        <v>8.077981516582668</v>
+        <v>0.1469116302646256</v>
       </c>
       <c r="N15">
-        <v>0.0372013881084623</v>
+        <v>0.04793077211235008</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.082059748069696</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.04649417049974147</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1539141134391144</v>
+        <v>0.109240291864694</v>
       </c>
       <c r="D16">
-        <v>0.1117664862511987</v>
+        <v>0.1273859023568917</v>
       </c>
       <c r="E16">
-        <v>0.04872692472527085</v>
+        <v>0.04693261718803043</v>
       </c>
       <c r="F16">
-        <v>0.7742881568336912</v>
+        <v>0.6318236209136003</v>
       </c>
       <c r="G16">
-        <v>0.5078970109190806</v>
+        <v>0.3947020184786112</v>
       </c>
       <c r="H16">
-        <v>0.1643852024968169</v>
+        <v>0.1638861327164847</v>
       </c>
       <c r="I16">
-        <v>0.002255504775312112</v>
+        <v>0.002180363502041871</v>
       </c>
       <c r="J16">
-        <v>0.4112980716669341</v>
+        <v>0.3423343139027253</v>
       </c>
       <c r="K16">
-        <v>0.5577363713822265</v>
+        <v>0.4292491556646212</v>
       </c>
       <c r="L16">
-        <v>0.051342753739271</v>
+        <v>0.1797434841923362</v>
       </c>
       <c r="M16">
-        <v>7.571662659775484</v>
+        <v>0.1477397840888663</v>
       </c>
       <c r="N16">
-        <v>0.03698526591294105</v>
+        <v>0.04692634529105222</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>7.577687497277282</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.04662606941271719</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1522519300672371</v>
+        <v>0.1056510862349711</v>
       </c>
       <c r="D17">
-        <v>0.1102533319852057</v>
+        <v>0.1247007214501394</v>
       </c>
       <c r="E17">
-        <v>0.05259129689122233</v>
+        <v>0.05050550882158866</v>
       </c>
       <c r="F17">
-        <v>0.8185162513421744</v>
+        <v>0.6755285440162666</v>
       </c>
       <c r="G17">
-        <v>0.5456541408808704</v>
+        <v>0.4186145341502083</v>
       </c>
       <c r="H17">
-        <v>0.1271691158964217</v>
+        <v>0.1265238184182635</v>
       </c>
       <c r="I17">
-        <v>0.002713472138516693</v>
+        <v>0.00246411928503143</v>
       </c>
       <c r="J17">
-        <v>0.4342873767092641</v>
+        <v>0.3749048068317933</v>
       </c>
       <c r="K17">
-        <v>0.5892951919480183</v>
+        <v>0.4584141284678687</v>
       </c>
       <c r="L17">
-        <v>0.0543779046991606</v>
+        <v>0.1919055799417713</v>
       </c>
       <c r="M17">
-        <v>7.262699657789994</v>
+        <v>0.1566785700964708</v>
       </c>
       <c r="N17">
-        <v>0.04176811113434731</v>
+        <v>0.04881548969722616</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>7.2694151635651</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.05315712946935136</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1589120843673868</v>
+        <v>0.1076064305922415</v>
       </c>
       <c r="D18">
-        <v>0.1127890729465406</v>
+        <v>0.1278724710488746</v>
       </c>
       <c r="E18">
-        <v>0.06313442938067126</v>
+        <v>0.06048817708284204</v>
       </c>
       <c r="F18">
-        <v>0.916860780044459</v>
+        <v>0.7556020512446366</v>
       </c>
       <c r="G18">
-        <v>0.6267036967271196</v>
+        <v>0.4761910845204511</v>
       </c>
       <c r="H18">
-        <v>0.07449203200684451</v>
+        <v>0.07381382847195539</v>
       </c>
       <c r="I18">
-        <v>0.002619632392396376</v>
+        <v>0.002271032928812033</v>
       </c>
       <c r="J18">
-        <v>0.4780572452129519</v>
+        <v>0.4143545331858434</v>
       </c>
       <c r="K18">
-        <v>0.6600371822846967</v>
+        <v>0.5116161698358539</v>
       </c>
       <c r="L18">
-        <v>0.06507474485436759</v>
+        <v>0.2122952511968812</v>
       </c>
       <c r="M18">
-        <v>7.087006859890721</v>
+        <v>0.1758474845232456</v>
       </c>
       <c r="N18">
-        <v>0.05458031384293349</v>
+        <v>0.0567595604720097</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>7.093732704877027</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.06941017073348732</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1700923158393834</v>
+        <v>0.1122290305186908</v>
       </c>
       <c r="D19">
-        <v>0.1189578430847007</v>
+        <v>0.1358462545631625</v>
       </c>
       <c r="E19">
-        <v>0.08004802963512603</v>
+        <v>0.07657989117445041</v>
       </c>
       <c r="F19">
-        <v>1.052926368024487</v>
+        <v>0.8608754084136265</v>
       </c>
       <c r="G19">
-        <v>0.7383751825142326</v>
+        <v>0.5561275738801186</v>
       </c>
       <c r="H19">
-        <v>0.02889548436467493</v>
+        <v>0.02830068291408594</v>
       </c>
       <c r="I19">
-        <v>0.002595310230939063</v>
+        <v>0.002339867894511904</v>
       </c>
       <c r="J19">
-        <v>0.5359063778244177</v>
+        <v>0.4589344722131017</v>
       </c>
       <c r="K19">
-        <v>0.75724498648637</v>
+        <v>0.5806577881944719</v>
       </c>
       <c r="L19">
-        <v>0.08614260583649624</v>
+        <v>0.2379260629306117</v>
       </c>
       <c r="M19">
-        <v>7.03032925265785</v>
+        <v>0.2019714882224761</v>
       </c>
       <c r="N19">
-        <v>0.07826705123345334</v>
+        <v>0.07361160103474873</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>7.036602191103498</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.09816636014573987</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1972970891130359</v>
+        <v>0.1268227858876543</v>
       </c>
       <c r="D20">
-        <v>0.1342212146359856</v>
+        <v>0.1561828330345776</v>
       </c>
       <c r="E20">
-        <v>0.1144067881048301</v>
+        <v>0.1094424740018098</v>
       </c>
       <c r="F20">
-        <v>1.301245257486784</v>
+        <v>1.039803463103851</v>
       </c>
       <c r="G20">
-        <v>0.9418620153785326</v>
+        <v>0.7048575541548132</v>
       </c>
       <c r="H20">
-        <v>0.00126751721137186</v>
+        <v>0.0009978500716454342</v>
       </c>
       <c r="I20">
-        <v>0.001949607277699883</v>
+        <v>0.002053940969366508</v>
       </c>
       <c r="J20">
-        <v>0.6361367315362969</v>
+        <v>0.5144809042983525</v>
       </c>
       <c r="K20">
-        <v>0.9353424027351238</v>
+        <v>0.6975853831404351</v>
       </c>
       <c r="L20">
-        <v>0.1354599797466207</v>
+        <v>0.2779355629854052</v>
       </c>
       <c r="M20">
-        <v>7.309800249224281</v>
+        <v>0.2505454240631835</v>
       </c>
       <c r="N20">
-        <v>0.1304655396048062</v>
+        <v>0.1143426639529963</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7.314068067027563</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.1598424444810504</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2243682973293915</v>
+        <v>0.1507419693461429</v>
       </c>
       <c r="D21">
-        <v>0.1511837879452003</v>
+        <v>0.1840276314225804</v>
       </c>
       <c r="E21">
-        <v>0.1298625550548991</v>
+        <v>0.1255472853659469</v>
       </c>
       <c r="F21">
-        <v>1.397922609757501</v>
+        <v>1.053110950573142</v>
       </c>
       <c r="G21">
-        <v>1.013301425604013</v>
+        <v>0.800103547212899</v>
       </c>
       <c r="H21">
-        <v>0.0001084192331841649</v>
+        <v>9.127625258309457E-05</v>
       </c>
       <c r="I21">
-        <v>0.001715053866728766</v>
+        <v>0.002120383873204013</v>
       </c>
       <c r="J21">
-        <v>0.6619664088158999</v>
+        <v>0.4166468223516659</v>
       </c>
       <c r="K21">
-        <v>1.003904720598179</v>
+        <v>0.702631848929741</v>
       </c>
       <c r="L21">
-        <v>0.1535356276030271</v>
+        <v>0.2704784383048207</v>
       </c>
       <c r="M21">
-        <v>8.229677745702361</v>
+        <v>0.264711913506261</v>
       </c>
       <c r="N21">
-        <v>0.1478374976836889</v>
+        <v>0.127689538473291</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.228929341929529</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.1800559348335753</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2426256809394118</v>
+        <v>0.1678354616670674</v>
       </c>
       <c r="D22">
-        <v>0.1614393878051033</v>
+        <v>0.2019988611463646</v>
       </c>
       <c r="E22">
-        <v>0.1384951896869779</v>
+        <v>0.1348204264230475</v>
       </c>
       <c r="F22">
-        <v>1.456400854125093</v>
+        <v>1.055193900155771</v>
       </c>
       <c r="G22">
-        <v>1.056860241387113</v>
+        <v>0.8676967929506816</v>
       </c>
       <c r="H22">
-        <v>1.717757180008661E-05</v>
+        <v>8.144765971440648E-06</v>
       </c>
       <c r="I22">
-        <v>0.001952629112435211</v>
+        <v>0.002255874854014905</v>
       </c>
       <c r="J22">
-        <v>0.6773094399916317</v>
+        <v>0.3563298096953673</v>
       </c>
       <c r="K22">
-        <v>1.046099038501112</v>
+        <v>0.702161802536736</v>
       </c>
       <c r="L22">
-        <v>0.163224179190756</v>
+        <v>0.2643201985278623</v>
       </c>
       <c r="M22">
-        <v>8.832845874636519</v>
+        <v>0.272923043401093</v>
       </c>
       <c r="N22">
-        <v>0.1560672596645603</v>
+        <v>0.134519434809242</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>8.827992820128713</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.1896519226066786</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2342615385305749</v>
+        <v>0.1589060924534351</v>
       </c>
       <c r="D23">
-        <v>0.1555817646312079</v>
+        <v>0.191096884107651</v>
       </c>
       <c r="E23">
-        <v>0.1339966734162878</v>
+        <v>0.1297593064431517</v>
       </c>
       <c r="F23">
-        <v>1.430116328084708</v>
+        <v>1.063153062129714</v>
       </c>
       <c r="G23">
-        <v>1.038261150069516</v>
+        <v>0.8282181334748202</v>
       </c>
       <c r="H23">
-        <v>1.217867005021134E-05</v>
+        <v>1.280987543883505E-05</v>
       </c>
       <c r="I23">
-        <v>0.001462792442385563</v>
+        <v>0.001782413026991669</v>
       </c>
       <c r="J23">
-        <v>0.6714701187193555</v>
+        <v>0.3990635837568846</v>
       </c>
       <c r="K23">
-        <v>1.028118623434075</v>
+        <v>0.7093255324469325</v>
       </c>
       <c r="L23">
-        <v>0.1584819525744052</v>
+        <v>0.2699743436646784</v>
       </c>
       <c r="M23">
-        <v>8.510890419066072</v>
+        <v>0.2713235748619169</v>
       </c>
       <c r="N23">
-        <v>0.1512231607179473</v>
+        <v>0.1313235364559162</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.508430072183728</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.1841327620494368</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2005171391576965</v>
+        <v>0.1287140608667414</v>
       </c>
       <c r="D24">
-        <v>0.1341651089787916</v>
+        <v>0.1562699562940111</v>
       </c>
       <c r="E24">
-        <v>0.1168754804325083</v>
+        <v>0.111778989997827</v>
       </c>
       <c r="F24">
-        <v>1.325604562400727</v>
+        <v>1.05916726905572</v>
       </c>
       <c r="G24">
-        <v>0.9632720115998552</v>
+        <v>0.7204682448392958</v>
       </c>
       <c r="H24">
-        <v>0.001093591912973535</v>
+        <v>0.0008339149076763697</v>
       </c>
       <c r="I24">
-        <v>0.0014371354906908</v>
+        <v>0.001449950861098337</v>
       </c>
       <c r="J24">
-        <v>0.647139516579017</v>
+        <v>0.5235957205903077</v>
       </c>
       <c r="K24">
-        <v>0.9543727994392839</v>
+        <v>0.7117115355694139</v>
       </c>
       <c r="L24">
-        <v>0.1398887182644728</v>
+        <v>0.2832025291705023</v>
       </c>
       <c r="M24">
-        <v>7.295621160010285</v>
+        <v>0.2558644909263634</v>
       </c>
       <c r="N24">
-        <v>0.1337750329123537</v>
+        <v>0.1180846259378683</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>7.299815710714824</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.163805103449306</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1644480798800174</v>
+        <v>0.1050700712561223</v>
       </c>
       <c r="D25">
-        <v>0.1113126232399111</v>
+        <v>0.1286254824023416</v>
       </c>
       <c r="E25">
-        <v>0.09856563285309505</v>
+        <v>0.09467928481526044</v>
       </c>
       <c r="F25">
-        <v>1.219244329720865</v>
+        <v>1.000835589213466</v>
       </c>
       <c r="G25">
-        <v>0.8886512039415635</v>
+        <v>0.6829178768173136</v>
       </c>
       <c r="H25">
-        <v>0.004369223442908354</v>
+        <v>0.003382826636074143</v>
       </c>
       <c r="I25">
-        <v>0.004045713917911087</v>
+        <v>0.002973837016765124</v>
       </c>
       <c r="J25">
-        <v>0.6242914289992854</v>
+        <v>0.5249850691535869</v>
       </c>
       <c r="K25">
-        <v>0.8785023940372341</v>
+        <v>0.6764910446595493</v>
       </c>
       <c r="L25">
-        <v>0.1199302050476305</v>
+        <v>0.2835030330376682</v>
       </c>
       <c r="M25">
-        <v>5.991541350702448</v>
+        <v>0.2269019903783658</v>
       </c>
       <c r="N25">
-        <v>0.1152434463997523</v>
+        <v>0.102643840300928</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>5.998524024488688</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1415203667664429</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
